--- a/doc/开发进度/进度甘特图.xlsx
+++ b/doc/开发进度/进度甘特图.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="346">
   <si>
     <t>一级菜单</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -356,10 +356,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>待办/已办</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>首页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1242,6 +1238,47 @@
   </si>
   <si>
     <t>设备保养</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产报工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录注销</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器地址配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAD.23</t>
+  </si>
+  <si>
+    <t>PAD.24</t>
+  </si>
+  <si>
+    <t>PAD.25</t>
+  </si>
+  <si>
+    <t>任务清单样式修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页TAB切换样式修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAD.5.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1496,10 +1533,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1803,11 +1840,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO157"/>
+  <dimension ref="A1:BO161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E21" sqref="E21"/>
+      <selection pane="topRight" activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1831,10 +1868,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>145</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>60</v>
@@ -2032,7 +2069,7 @@
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="10" t="s">
@@ -2046,7 +2083,7 @@
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="10" t="s">
@@ -2060,7 +2097,7 @@
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="10" t="s">
@@ -2074,35 +2111,35 @@
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>267</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>268</v>
       </c>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:67" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="32"/>
-      <c r="B6" s="35"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="24"/>
       <c r="D6" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>329</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>330</v>
       </c>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:67" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="32"/>
-      <c r="B7" s="34"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="24"/>
       <c r="D7" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:67" ht="16.5" x14ac:dyDescent="0.15">
@@ -2112,22 +2149,22 @@
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:67" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="32"/>
-      <c r="B9" s="34"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="24"/>
       <c r="D9" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>291</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>292</v>
       </c>
       <c r="F9" s="11"/>
     </row>
@@ -2138,7 +2175,7 @@
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
@@ -2148,11 +2185,11 @@
     <row r="11" spans="1:67" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="32"/>
       <c r="B11" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
@@ -2164,10 +2201,10 @@
       <c r="B12" s="26"/>
       <c r="C12" s="24"/>
       <c r="D12" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>323</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>324</v>
       </c>
       <c r="F12" s="10"/>
     </row>
@@ -2178,19 +2215,19 @@
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>265</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>266</v>
       </c>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:67" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="32"/>
-      <c r="B14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="24"/>
       <c r="D14" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="10" t="s">
@@ -2202,11 +2239,11 @@
         <v>56</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="10" t="s">
@@ -2214,25 +2251,25 @@
       </c>
     </row>
     <row r="16" spans="1:67" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="28"/>
       <c r="C16" s="24"/>
       <c r="D16" s="5"/>
       <c r="E16" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="10" t="s">
@@ -2240,7 +2277,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="33" t="s">
         <v>7</v>
       </c>
@@ -2248,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="10" t="s">
@@ -2256,13 +2293,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="10" t="s">
@@ -2270,45 +2307,45 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="24"/>
       <c r="D20" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>331</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>332</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="24"/>
       <c r="D21" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="33" t="s">
         <v>63</v>
       </c>
@@ -2316,33 +2353,33 @@
         <v>11</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="35"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35" t="s">
-        <v>335</v>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34" t="s">
+        <v>334</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="10" t="s">
@@ -2350,27 +2387,27 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="24" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="10" t="s">
@@ -2380,11 +2417,11 @@
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="B28" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="10" t="s">
@@ -2394,11 +2431,11 @@
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="3"/>
@@ -2406,11 +2443,11 @@
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="3"/>
@@ -2418,25 +2455,25 @@
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="31"/>
       <c r="B31" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B32" s="23" t="s">
         <v>295</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>296</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="10" t="s">
@@ -2444,15 +2481,15 @@
       </c>
     </row>
     <row r="33" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="35"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="10" t="s">
@@ -2460,13 +2497,13 @@
       </c>
     </row>
     <row r="34" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="10" t="s">
@@ -2474,41 +2511,41 @@
       </c>
     </row>
     <row r="35" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="24"/>
       <c r="D35" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="35"/>
-      <c r="B36" s="34"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="24"/>
       <c r="D36" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="35"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C37" s="24"/>
       <c r="D37" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="10" t="s">
@@ -2516,18 +2553,18 @@
       </c>
     </row>
     <row r="38" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="35"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>61</v>
@@ -2535,13 +2572,13 @@
       <c r="AX38" s="22"/>
     </row>
     <row r="39" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="10" t="s">
@@ -2549,13 +2586,13 @@
       </c>
     </row>
     <row r="40" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
       <c r="C40" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="10" t="s">
@@ -2564,14 +2601,14 @@
     </row>
     <row r="41" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="3"/>
@@ -2579,15 +2616,15 @@
     <row r="42" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="30"/>
       <c r="B42" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
@@ -2595,21 +2632,21 @@
       <c r="B43" s="16"/>
       <c r="C43" s="4"/>
       <c r="D43" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E43" s="18" t="s">
         <v>282</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>283</v>
       </c>
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E44" s="18"/>
       <c r="F44" s="3"/>
@@ -2621,7 +2658,7 @@
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="3"/>
@@ -2633,7 +2670,7 @@
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="3"/>
@@ -2647,7 +2684,7 @@
         <v>53</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="3"/>
@@ -2659,7 +2696,7 @@
         <v>54</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="3"/>
@@ -2671,7 +2708,7 @@
         <v>65</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="3"/>
@@ -2683,11 +2720,11 @@
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -2697,11 +2734,11 @@
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E51" s="18"/>
       <c r="F51" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -2709,10 +2746,10 @@
       <c r="B52" s="31"/>
       <c r="C52" s="4"/>
       <c r="D52" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E52" s="18" t="s">
         <v>270</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>271</v>
       </c>
       <c r="F52" s="10"/>
     </row>
@@ -2723,7 +2760,7 @@
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E53" s="18"/>
       <c r="F53" s="3"/>
@@ -2735,55 +2772,55 @@
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E54" s="18"/>
       <c r="F54" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="30"/>
       <c r="B56" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E56" s="18"/>
       <c r="F56" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="30"/>
       <c r="B57" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E57" s="18"/>
       <c r="F57" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -2791,24 +2828,24 @@
       <c r="B58" s="31"/>
       <c r="C58" s="4"/>
       <c r="D58" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>284</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>285</v>
       </c>
       <c r="F58" s="10"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="30"/>
       <c r="B59" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F59" s="3"/>
     </row>
@@ -2817,20 +2854,20 @@
       <c r="B60" s="31"/>
       <c r="C60" s="4"/>
       <c r="D60" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="30"/>
       <c r="B61" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="3"/>
@@ -2838,13 +2875,13 @@
     <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="30"/>
       <c r="B62" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="D62" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E62" s="18"/>
       <c r="F62" s="3"/>
@@ -2853,10 +2890,10 @@
       <c r="A63" s="30"/>
       <c r="B63" s="30"/>
       <c r="C63" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E63" s="18"/>
       <c r="F63" s="3"/>
@@ -2865,10 +2902,10 @@
       <c r="A64" s="30"/>
       <c r="B64" s="31"/>
       <c r="C64" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E64" s="18"/>
       <c r="F64" s="3"/>
@@ -2876,11 +2913,11 @@
     <row r="65" spans="1:36" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="30"/>
       <c r="B65" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="3"/>
@@ -2892,7 +2929,7 @@
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E66" s="18"/>
       <c r="F66" s="3"/>
@@ -2904,21 +2941,21 @@
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:36" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B68" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E68" s="18"/>
       <c r="F68" s="10" t="s">
@@ -2934,10 +2971,10 @@
       <c r="B69" s="30"/>
       <c r="C69" s="4"/>
       <c r="D69" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E69" s="18" t="s">
         <v>317</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>318</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>61</v>
@@ -2952,10 +2989,10 @@
       <c r="B70" s="30"/>
       <c r="C70" s="4"/>
       <c r="D70" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E70" s="18" t="s">
         <v>321</v>
-      </c>
-      <c r="E70" s="18" t="s">
-        <v>322</v>
       </c>
       <c r="F70" s="10"/>
       <c r="AG70" s="22"/>
@@ -2968,10 +3005,10 @@
       <c r="B71" s="31"/>
       <c r="C71" s="4"/>
       <c r="D71" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F71" s="10"/>
       <c r="AG71" s="22"/>
@@ -2986,7 +3023,7 @@
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E72" s="18"/>
       <c r="F72" s="3"/>
@@ -2996,10 +3033,10 @@
       <c r="B73" s="30"/>
       <c r="C73" s="4"/>
       <c r="D73" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E73" s="18" t="s">
         <v>319</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>320</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>61</v>
@@ -3010,10 +3047,10 @@
       <c r="B74" s="31"/>
       <c r="C74" s="4"/>
       <c r="D74" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E74" s="18" t="s">
         <v>325</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>326</v>
       </c>
       <c r="F74" s="3"/>
     </row>
@@ -3024,7 +3061,7 @@
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E75" s="18"/>
       <c r="F75" s="3"/>
@@ -3036,7 +3073,7 @@
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E76" s="18"/>
       <c r="F76" s="3"/>
@@ -3048,7 +3085,7 @@
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E77" s="18"/>
       <c r="F77" s="3"/>
@@ -3056,11 +3093,11 @@
     <row r="78" spans="1:36" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="30"/>
       <c r="B78" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="3"/>
@@ -3072,7 +3109,7 @@
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="3"/>
@@ -3084,7 +3121,7 @@
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E80" s="18"/>
       <c r="F80" s="3"/>
@@ -3096,7 +3133,7 @@
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="3"/>
@@ -3108,7 +3145,7 @@
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="3"/>
@@ -3120,7 +3157,7 @@
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E83" s="18"/>
       <c r="F83" s="10" t="s">
@@ -3137,7 +3174,7 @@
         <v>26</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E84" s="18"/>
       <c r="F84" s="3"/>
@@ -3149,7 +3186,7 @@
         <v>27</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E85" s="18"/>
       <c r="F85" s="3"/>
@@ -3161,7 +3198,7 @@
         <v>68</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="3"/>
@@ -3175,7 +3212,7 @@
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E87" s="18"/>
       <c r="F87" s="3"/>
@@ -3189,7 +3226,7 @@
         <v>69</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E88" s="18"/>
       <c r="F88" s="3"/>
@@ -3201,7 +3238,7 @@
         <v>70</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E89" s="18"/>
       <c r="F89" s="3"/>
@@ -3213,7 +3250,7 @@
         <v>71</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E90" s="18"/>
       <c r="F90" s="3"/>
@@ -3225,7 +3262,7 @@
         <v>72</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E91" s="18"/>
       <c r="F91" s="3"/>
@@ -3237,7 +3274,7 @@
         <v>73</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E92" s="18"/>
       <c r="F92" s="3"/>
@@ -3249,7 +3286,7 @@
         <v>74</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E93" s="18"/>
       <c r="F93" s="3"/>
@@ -3261,7 +3298,7 @@
         <v>75</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E94" s="18"/>
       <c r="F94" s="3"/>
@@ -3273,7 +3310,7 @@
         <v>76</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E95" s="18"/>
       <c r="F95" s="3"/>
@@ -3285,7 +3322,7 @@
         <v>77</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E96" s="18"/>
       <c r="F96" s="3"/>
@@ -3297,7 +3334,7 @@
         <v>78</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="3"/>
@@ -3309,7 +3346,7 @@
         <v>79</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="3"/>
@@ -3321,7 +3358,7 @@
         <v>80</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E99" s="18"/>
       <c r="F99" s="3"/>
@@ -3333,7 +3370,7 @@
         <v>81</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E100" s="18"/>
       <c r="F100" s="3"/>
@@ -3345,7 +3382,7 @@
         <v>82</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E101" s="18"/>
       <c r="F101" s="3"/>
@@ -3357,7 +3394,7 @@
         <v>83</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E102" s="18"/>
       <c r="F102" s="3"/>
@@ -3369,7 +3406,7 @@
         <v>84</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E103" s="18"/>
       <c r="F103" s="3"/>
@@ -3488,88 +3525,96 @@
     </row>
     <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A115" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>85</v>
+        <v>336</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E115" s="18"/>
-      <c r="F115" s="3"/>
+      <c r="F115" s="10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="116" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A116" s="30"/>
-      <c r="B116" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C116" s="9"/>
+      <c r="B116" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>338</v>
+      </c>
       <c r="D116" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E116" s="18"/>
+      <c r="F116" s="10"/>
+    </row>
+    <row r="117" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A117" s="30"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E116" s="18"/>
-      <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="30"/>
-      <c r="B117" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D117" s="5" t="s">
+      <c r="E117" s="18"/>
+      <c r="F117" s="10"/>
+    </row>
+    <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A118" s="30"/>
+      <c r="B118" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E117" s="18"/>
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="30"/>
-      <c r="B118" s="30"/>
-      <c r="C118" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E118" s="18"/>
+      <c r="E118" s="18" t="s">
+        <v>344</v>
+      </c>
       <c r="F118" s="3"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="30"/>
-      <c r="B119" s="30"/>
+      <c r="B119" s="29" t="s">
+        <v>86</v>
+      </c>
       <c r="C119" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E119" s="18"/>
-      <c r="F119" s="3"/>
+      <c r="F119" s="10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="120" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="30"/>
       <c r="B120" s="30"/>
-      <c r="C120" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="C120" s="21"/>
       <c r="D120" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E120" s="18"/>
-      <c r="F120" s="3"/>
+        <v>345</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="F120" s="10"/>
     </row>
     <row r="121" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="30"/>
       <c r="B121" s="30"/>
       <c r="C121" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E121" s="18"/>
       <c r="F121" s="3"/>
@@ -3578,136 +3623,138 @@
       <c r="A122" s="30"/>
       <c r="B122" s="30"/>
       <c r="C122" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E122" s="18"/>
-      <c r="F122" s="3"/>
+      <c r="F122" s="10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="123" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="30"/>
       <c r="B123" s="30"/>
-      <c r="C123" s="2" t="s">
-        <v>98</v>
+      <c r="C123" s="21" t="s">
+        <v>335</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E123" s="18"/>
-      <c r="F123" s="3"/>
+      <c r="F123" s="10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="124" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="30"/>
       <c r="B124" s="30"/>
       <c r="C124" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E124" s="18"/>
       <c r="F124" s="3"/>
     </row>
     <row r="125" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="30"/>
-      <c r="B125" s="31"/>
+      <c r="B125" s="30"/>
       <c r="C125" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E125" s="18"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="30"/>
-      <c r="B126" s="29" t="s">
-        <v>104</v>
-      </c>
+      <c r="B126" s="30"/>
       <c r="C126" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E126" s="18"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="30"/>
-      <c r="B127" s="31"/>
+      <c r="B127" s="30"/>
       <c r="C127" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E127" s="18"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="30"/>
-      <c r="B128" s="29" t="s">
-        <v>105</v>
-      </c>
+      <c r="B128" s="30"/>
       <c r="C128" s="2" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E128" s="18"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="30"/>
       <c r="B129" s="31"/>
       <c r="C129" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E129" s="18"/>
       <c r="F129" s="3"/>
     </row>
     <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A130" s="30"/>
-      <c r="B130" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C130" s="6"/>
+      <c r="B130" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="D130" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E130" s="18"/>
       <c r="F130" s="3"/>
     </row>
     <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A131" s="30"/>
-      <c r="B131" s="29" t="s">
-        <v>107</v>
-      </c>
+      <c r="B131" s="31"/>
       <c r="C131" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E131" s="18"/>
       <c r="F131" s="3"/>
     </row>
     <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A132" s="30"/>
-      <c r="B132" s="30"/>
+      <c r="B132" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="C132" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E132" s="18"/>
       <c r="F132" s="3"/>
@@ -3716,136 +3763,136 @@
       <c r="A133" s="30"/>
       <c r="B133" s="31"/>
       <c r="C133" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E133" s="18"/>
       <c r="F133" s="3"/>
     </row>
     <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A134" s="30"/>
-      <c r="B134" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="B134" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C134" s="6"/>
       <c r="D134" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E134" s="18"/>
       <c r="F134" s="3"/>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A135" s="30"/>
-      <c r="B135" s="30"/>
+      <c r="B135" s="29" t="s">
+        <v>106</v>
+      </c>
       <c r="C135" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E135" s="18"/>
       <c r="F135" s="3"/>
     </row>
     <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="31"/>
-      <c r="B136" s="31"/>
+      <c r="A136" s="30"/>
+      <c r="B136" s="30"/>
       <c r="C136" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E136" s="18"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C137" s="9"/>
+    <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A137" s="30"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="D137" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E137" s="18"/>
       <c r="F137" s="3"/>
     </row>
     <row r="138" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A138" s="30"/>
-      <c r="B138" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C138" s="9"/>
+      <c r="B138" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="D138" s="5" t="s">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c r="E138" s="18"/>
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A139" s="30"/>
-      <c r="B139" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C139" s="9"/>
+      <c r="B139" s="30"/>
+      <c r="C139" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="D139" s="5" t="s">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="E139" s="18"/>
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A140" s="30"/>
-      <c r="B140" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C140" s="9"/>
+      <c r="A140" s="31"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="D140" s="5" t="s">
-        <v>246</v>
+        <v>342</v>
       </c>
       <c r="E140" s="18"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A141" s="30"/>
+    <row r="141" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="29" t="s">
+        <v>128</v>
+      </c>
       <c r="B141" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E141" s="18"/>
       <c r="F141" s="3"/>
     </row>
     <row r="142" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A142" s="31"/>
+      <c r="A142" s="30"/>
       <c r="B142" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E142" s="18"/>
       <c r="F142" s="3"/>
     </row>
     <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A143" s="29" t="s">
-        <v>130</v>
-      </c>
+      <c r="A143" s="30"/>
       <c r="B143" s="2" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E143" s="18"/>
       <c r="F143" s="3"/>
@@ -3853,11 +3900,11 @@
     <row r="144" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A144" s="30"/>
       <c r="B144" s="2" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E144" s="18"/>
       <c r="F144" s="3"/>
@@ -3865,35 +3912,37 @@
     <row r="145" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A145" s="30"/>
       <c r="B145" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E145" s="18"/>
       <c r="F145" s="3"/>
     </row>
     <row r="146" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A146" s="30"/>
+      <c r="A146" s="31"/>
       <c r="B146" s="2" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E146" s="18"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="30"/>
+    <row r="147" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A147" s="29" t="s">
+        <v>129</v>
+      </c>
       <c r="B147" s="2" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E147" s="18"/>
       <c r="F147" s="3"/>
@@ -3901,49 +3950,47 @@
     <row r="148" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A148" s="30"/>
       <c r="B148" s="2" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E148" s="18"/>
       <c r="F148" s="3"/>
     </row>
     <row r="149" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A149" s="30"/>
-      <c r="B149" s="12" t="s">
-        <v>135</v>
+      <c r="B149" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E149" s="18"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="31"/>
+    <row r="150" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A150" s="30"/>
       <c r="B150" s="2" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E150" s="18"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A151" s="29" t="s">
-        <v>131</v>
-      </c>
+    <row r="151" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="30"/>
       <c r="B151" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E151" s="18"/>
       <c r="F151" s="3"/>
@@ -3951,47 +3998,49 @@
     <row r="152" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A152" s="30"/>
       <c r="B152" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E152" s="18"/>
       <c r="F152" s="3"/>
     </row>
     <row r="153" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A153" s="30"/>
-      <c r="B153" s="2" t="s">
-        <v>124</v>
+      <c r="B153" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E153" s="18"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="30"/>
+    <row r="154" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="31"/>
       <c r="B154" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E154" s="18"/>
       <c r="F154" s="3"/>
     </row>
     <row r="155" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A155" s="30"/>
+      <c r="A155" s="29" t="s">
+        <v>130</v>
+      </c>
       <c r="B155" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E155" s="18"/>
       <c r="F155" s="3"/>
@@ -3999,29 +4048,98 @@
     <row r="156" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A156" s="30"/>
       <c r="B156" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E156" s="18"/>
       <c r="F156" s="3"/>
     </row>
     <row r="157" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A157" s="31"/>
+      <c r="A157" s="30"/>
       <c r="B157" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E157" s="18"/>
       <c r="F157" s="3"/>
     </row>
+    <row r="158" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="30"/>
+      <c r="B158" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C158" s="9"/>
+      <c r="D158" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E158" s="18"/>
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A159" s="30"/>
+      <c r="B159" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C159" s="9"/>
+      <c r="D159" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E159" s="18"/>
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A160" s="30"/>
+      <c r="B160" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C160" s="9"/>
+      <c r="D160" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E160" s="18"/>
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A161" s="31"/>
+      <c r="B161" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C161" s="9"/>
+      <c r="D161" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E161" s="18"/>
+      <c r="F161" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="A147:A154"/>
+    <mergeCell ref="A155:A161"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="A104:A114"/>
+    <mergeCell ref="B119:B129"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="A115:A140"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="A68:A86"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A55:A67"/>
+    <mergeCell ref="A87:A103"/>
+    <mergeCell ref="B88:B103"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B74"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="A41:A54"/>
     <mergeCell ref="A2:A14"/>
@@ -4037,26 +4155,6 @@
     <mergeCell ref="A32:A40"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A68:A86"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A55:A67"/>
-    <mergeCell ref="A87:A103"/>
-    <mergeCell ref="B88:B103"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="A104:A114"/>
-    <mergeCell ref="B117:B125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="A115:A136"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="A143:A150"/>
-    <mergeCell ref="A151:A157"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/开发进度/进度甘特图.xlsx
+++ b/doc/开发进度/进度甘特图.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="清单" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="353">
   <si>
     <t>一级菜单</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -220,10 +220,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>领料出库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>批次管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -879,21 +875,6 @@
     <t>PAD.17</t>
   </si>
   <si>
-    <t>PAD.18</t>
-  </si>
-  <si>
-    <t>PAD.19</t>
-  </si>
-  <si>
-    <t>PAD.20</t>
-  </si>
-  <si>
-    <t>PAD.21</t>
-  </si>
-  <si>
-    <t>PAD.22</t>
-  </si>
-  <si>
     <t>PH.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1261,15 +1242,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PAD.23</t>
-  </si>
-  <si>
-    <t>PAD.24</t>
-  </si>
-  <si>
-    <t>PAD.25</t>
-  </si>
-  <si>
     <t>任务清单样式修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1279,6 +1251,67 @@
   </si>
   <si>
     <t>PAD.5.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产领料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD.4.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP作业指导书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流转单打印</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投料清单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAD.5.2</t>
+  </si>
+  <si>
+    <t>PAD7.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码打印机对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流转单生成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAD.6.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投料清单样式修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领料单选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAD.6.2</t>
+  </si>
+  <si>
+    <t>PAD.6.3</t>
+  </si>
+  <si>
+    <t>流转单选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投料清单生成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1840,11 +1873,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO161"/>
+  <dimension ref="A1:BO168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E125" sqref="E125"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1868,13 +1901,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>145</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G1" s="14">
         <v>44682</v>
@@ -2062,18 +2095,18 @@
     </row>
     <row r="2" spans="1:67" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:67" ht="16.5" x14ac:dyDescent="0.15">
@@ -2083,38 +2116,38 @@
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:67" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="32"/>
       <c r="B4" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:67" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="32"/>
       <c r="B5" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F5" s="10"/>
     </row>
@@ -2123,201 +2156,201 @@
       <c r="B6" s="34"/>
       <c r="C6" s="24"/>
       <c r="D6" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:67" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="32"/>
-      <c r="B7" s="35"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="24"/>
       <c r="D7" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="18"/>
+        <v>338</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>339</v>
+      </c>
       <c r="F7" s="10" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:67" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="32"/>
-      <c r="B8" s="33" t="s">
-        <v>5</v>
-      </c>
+      <c r="B8" s="35"/>
       <c r="C8" s="24"/>
       <c r="D8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="10" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:67" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="32"/>
-      <c r="B9" s="35"/>
+      <c r="B9" s="33" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" s="24"/>
       <c r="D9" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="F9" s="11"/>
+        <v>149</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="11" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="10" spans="1:67" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="32"/>
-      <c r="B10" s="23" t="s">
-        <v>62</v>
-      </c>
+      <c r="B10" s="35"/>
       <c r="C10" s="24"/>
       <c r="D10" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="10" t="s">
-        <v>61</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:67" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="32"/>
       <c r="B11" s="23" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:67" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="32"/>
-      <c r="B12" s="26"/>
+      <c r="B12" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="C12" s="24"/>
       <c r="D12" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:67" ht="54" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="32"/>
-      <c r="B13" s="33" t="s">
-        <v>6</v>
-      </c>
+      <c r="B13" s="26"/>
       <c r="C13" s="24"/>
       <c r="D13" s="5" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:67" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:67" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" s="32"/>
-      <c r="B14" s="35"/>
+      <c r="B14" s="33" t="s">
+        <v>6</v>
+      </c>
       <c r="C14" s="24"/>
       <c r="D14" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="10" t="s">
-        <v>61</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:67" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>133</v>
-      </c>
+      <c r="A15" s="32"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="24"/>
       <c r="D15" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:67" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>132</v>
+      </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="18" t="s">
-        <v>280</v>
-      </c>
+      <c r="D16" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="18"/>
       <c r="F16" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
-      <c r="B17" s="27" t="s">
-        <v>57</v>
-      </c>
+      <c r="B17" s="28"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" s="18"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="18" t="s">
+        <v>274</v>
+      </c>
       <c r="F17" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="34"/>
-      <c r="B18" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>8</v>
-      </c>
+      <c r="B18" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="24"/>
       <c r="D18" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
+      <c r="B19" s="33" t="s">
+        <v>7</v>
+      </c>
       <c r="C19" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="34"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="24"/>
+      <c r="C20" s="24" t="s">
+        <v>9</v>
+      </c>
       <c r="D20" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>331</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="E20" s="18"/>
       <c r="F20" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -2325,340 +2358,342 @@
       <c r="B21" s="34"/>
       <c r="C21" s="24"/>
       <c r="D21" s="5" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="F21" s="10"/>
+        <v>325</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="3"/>
+        <v>327</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="34"/>
-      <c r="B23" s="33" t="s">
-        <v>63</v>
-      </c>
+      <c r="B23" s="35"/>
       <c r="C23" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
+      <c r="B24" s="33" t="s">
+        <v>62</v>
+      </c>
       <c r="C24" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="34"/>
-      <c r="B25" s="34" t="s">
-        <v>334</v>
-      </c>
+      <c r="B25" s="35"/>
       <c r="C25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="E27" s="18"/>
-      <c r="F27" s="10" t="s">
-        <v>61</v>
-      </c>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="30"/>
+      <c r="A28" s="29" t="s">
+        <v>137</v>
+      </c>
       <c r="B28" s="13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E29" s="18"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="31"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="34"/>
-      <c r="B33" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
+      <c r="B34" s="33" t="s">
+        <v>290</v>
+      </c>
       <c r="C34" s="24" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="34"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="24"/>
+      <c r="C35" s="24" t="s">
+        <v>292</v>
+      </c>
       <c r="D35" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>314</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="E35" s="18"/>
       <c r="F35" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="34"/>
-      <c r="B36" s="35"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="24"/>
       <c r="D36" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="34"/>
-      <c r="B37" s="23" t="s">
-        <v>300</v>
-      </c>
+      <c r="B37" s="35"/>
       <c r="C37" s="24"/>
       <c r="D37" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E37" s="18"/>
+        <v>307</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>309</v>
+      </c>
       <c r="F37" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="34"/>
-      <c r="B38" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>304</v>
-      </c>
+      <c r="B38" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" s="24"/>
       <c r="D38" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>307</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="E38" s="18"/>
       <c r="F38" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX38" s="22"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="39" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
+      <c r="B39" s="33" t="s">
+        <v>291</v>
+      </c>
       <c r="C39" s="24" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E39" s="18"/>
+        <v>303</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>301</v>
+      </c>
       <c r="F39" s="10" t="s">
-        <v>61</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AX39" s="22"/>
     </row>
     <row r="40" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="34"/>
       <c r="B40" s="34"/>
       <c r="C40" s="24" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="30"/>
-      <c r="B42" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E42" s="18"/>
-      <c r="F42" s="10" t="s">
-        <v>263</v>
-      </c>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="30"/>
-      <c r="B43" s="16"/>
+      <c r="B43" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="C43" s="4"/>
       <c r="D43" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="F43" s="10"/>
+        <v>168</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="10" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="44" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
-      <c r="B44" s="12" t="s">
-        <v>135</v>
-      </c>
+      <c r="B44" s="16"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="3"/>
+        <v>275</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
-      <c r="B45" s="2" t="s">
-        <v>15</v>
+      <c r="B45" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="3"/>
@@ -2666,318 +2701,314 @@
     <row r="46" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="30"/>
-      <c r="B47" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="4"/>
       <c r="D47" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:50" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
+      <c r="B48" s="29" t="s">
+        <v>51</v>
+      </c>
       <c r="C48" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="30"/>
-      <c r="B49" s="31"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="30"/>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="31"/>
+      <c r="C50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="18"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="30"/>
+      <c r="B51" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="30"/>
-      <c r="B51" s="29" t="s">
-        <v>43</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="5" t="s">
-        <v>268</v>
+        <v>175</v>
       </c>
       <c r="E51" s="18"/>
       <c r="F51" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="30"/>
-      <c r="B52" s="31"/>
+      <c r="B52" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="C52" s="4"/>
       <c r="D52" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="F52" s="10"/>
-    </row>
-    <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+      <c r="E52" s="18"/>
+      <c r="F52" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="30"/>
-      <c r="B53" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B53" s="31"/>
       <c r="C53" s="4"/>
       <c r="D53" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="3"/>
+        <v>263</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="31"/>
+      <c r="A54" s="30"/>
       <c r="B54" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E54" s="18"/>
       <c r="F54" s="10" t="s">
-        <v>271</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="29" t="s">
-        <v>107</v>
-      </c>
+      <c r="A55" s="31"/>
       <c r="B55" s="2" t="s">
-        <v>288</v>
+        <v>17</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="10" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="30"/>
+      <c r="A56" s="29" t="s">
+        <v>106</v>
+      </c>
       <c r="B56" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E56" s="18"/>
       <c r="F56" s="10" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="30"/>
-      <c r="B57" s="29" t="s">
-        <v>277</v>
+      <c r="B57" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E57" s="18"/>
       <c r="F57" s="10" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="30"/>
-      <c r="B58" s="31"/>
+      <c r="B58" s="29" t="s">
+        <v>271</v>
+      </c>
       <c r="C58" s="4"/>
       <c r="D58" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="F58" s="10"/>
+        <v>180</v>
+      </c>
+      <c r="E58" s="18"/>
+      <c r="F58" s="10" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="30"/>
-      <c r="B59" s="29" t="s">
-        <v>285</v>
-      </c>
+      <c r="B59" s="31"/>
       <c r="C59" s="4"/>
       <c r="D59" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E59" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="E59" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="F59" s="3"/>
+      <c r="F59" s="10"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="30"/>
-      <c r="B60" s="31"/>
+      <c r="B60" s="29" t="s">
+        <v>279</v>
+      </c>
       <c r="C60" s="4"/>
       <c r="D60" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>131</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="30"/>
-      <c r="B61" s="15" t="s">
-        <v>286</v>
-      </c>
+      <c r="B61" s="31"/>
       <c r="C61" s="4"/>
       <c r="D61" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E61" s="18"/>
-      <c r="F61" s="3"/>
+        <v>273</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="30"/>
-      <c r="B62" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>273</v>
-      </c>
+      <c r="B62" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C62" s="4"/>
       <c r="D62" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E62" s="18"/>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
+      <c r="B63" s="29" t="s">
+        <v>266</v>
+      </c>
       <c r="C63" s="4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E63" s="18"/>
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="30"/>
-      <c r="B64" s="31"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E64" s="18"/>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:36" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="30"/>
-      <c r="B65" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="C65" s="4"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="D65" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:36" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="30"/>
-      <c r="B66" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="6"/>
+      <c r="B66" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C66" s="4"/>
       <c r="D66" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E66" s="18"/>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="31"/>
+      <c r="A67" s="30"/>
       <c r="B67" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:36" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="B68" s="29" t="s">
+    <row r="68" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="31"/>
+      <c r="B68" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68" s="18"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:36" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A69" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="B69" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E68" s="18"/>
-      <c r="F68" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG68" s="22"/>
-      <c r="AH68" s="22"/>
-      <c r="AI68" s="22"/>
-      <c r="AJ68" s="22"/>
-    </row>
-    <row r="69" spans="1:36" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
       <c r="C69" s="4"/>
       <c r="D69" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>317</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="E69" s="18"/>
       <c r="F69" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG69" s="22"/>
       <c r="AH69" s="22"/>
@@ -2989,12 +3020,14 @@
       <c r="B70" s="30"/>
       <c r="C70" s="4"/>
       <c r="D70" s="5" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="F70" s="10"/>
+        <v>311</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="AG70" s="22"/>
       <c r="AH70" s="22"/>
       <c r="AI70" s="22"/>
@@ -3002,13 +3035,13 @@
     </row>
     <row r="71" spans="1:36" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="30"/>
-      <c r="B71" s="31"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="4"/>
       <c r="D71" s="5" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F71" s="10"/>
       <c r="AG71" s="22"/>
@@ -3018,98 +3051,104 @@
     </row>
     <row r="72" spans="1:36" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="30"/>
-      <c r="B72" s="29" t="s">
-        <v>47</v>
-      </c>
+      <c r="B72" s="31"/>
       <c r="C72" s="4"/>
       <c r="D72" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E72" s="18"/>
-      <c r="F72" s="3"/>
+        <v>320</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="F72" s="10"/>
+      <c r="AG72" s="22"/>
+      <c r="AH72" s="22"/>
+      <c r="AI72" s="22"/>
+      <c r="AJ72" s="22"/>
     </row>
     <row r="73" spans="1:36" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="30"/>
-      <c r="B73" s="30"/>
+      <c r="B73" s="29" t="s">
+        <v>47</v>
+      </c>
       <c r="C73" s="4"/>
       <c r="D73" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>61</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="E73" s="18"/>
+      <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:36" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="30"/>
-      <c r="B74" s="31"/>
+      <c r="B74" s="30"/>
       <c r="C74" s="4"/>
       <c r="D74" s="5" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="F74" s="3"/>
+        <v>313</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="75" spans="1:36" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="30"/>
-      <c r="B75" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="B75" s="31"/>
       <c r="C75" s="4"/>
       <c r="D75" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E75" s="18"/>
+        <v>318</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>319</v>
+      </c>
       <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:36" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="30"/>
       <c r="B76" s="2" t="s">
-        <v>46</v>
+        <v>337</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E76" s="18"/>
-      <c r="F76" s="3"/>
+      <c r="F76" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="77" spans="1:36" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="30"/>
       <c r="B77" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E77" s="18"/>
       <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:36" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="30"/>
-      <c r="B78" s="21" t="s">
-        <v>292</v>
+      <c r="B78" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:36" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="30"/>
-      <c r="B79" s="2" t="s">
-        <v>48</v>
+      <c r="B79" s="21" t="s">
+        <v>286</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="3"/>
@@ -3117,11 +3156,11 @@
     <row r="80" spans="1:36" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="30"/>
       <c r="B80" s="2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E80" s="18"/>
       <c r="F80" s="3"/>
@@ -3129,11 +3168,11 @@
     <row r="81" spans="1:37" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="30"/>
       <c r="B81" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="3"/>
@@ -3141,11 +3180,11 @@
     <row r="82" spans="1:37" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="30"/>
       <c r="B82" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="3"/>
@@ -3153,40 +3192,40 @@
     <row r="83" spans="1:37" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="30"/>
       <c r="B83" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E83" s="18"/>
-      <c r="F83" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK83" s="22"/>
+      <c r="F83" s="3"/>
     </row>
     <row r="84" spans="1:37" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="30"/>
-      <c r="B84" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="B84" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="4"/>
       <c r="D84" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E84" s="18"/>
-      <c r="F84" s="3"/>
+      <c r="F84" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK84" s="22"/>
     </row>
     <row r="85" spans="1:37" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="30"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="4" t="s">
-        <v>27</v>
+      <c r="B85" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E85" s="18"/>
       <c r="F85" s="3"/>
@@ -3195,50 +3234,50 @@
       <c r="A86" s="30"/>
       <c r="B86" s="30"/>
       <c r="C86" s="4" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:37" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" s="4"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="D87" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E87" s="18"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="30"/>
-      <c r="B88" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>69</v>
-      </c>
+    <row r="88" spans="1:37" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A88" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="4"/>
       <c r="D88" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E88" s="18"/>
       <c r="F88" s="3"/>
     </row>
     <row r="89" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="30"/>
-      <c r="B89" s="30"/>
+      <c r="B89" s="29" t="s">
+        <v>30</v>
+      </c>
       <c r="C89" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E89" s="18"/>
       <c r="F89" s="3"/>
@@ -3247,10 +3286,10 @@
       <c r="A90" s="30"/>
       <c r="B90" s="30"/>
       <c r="C90" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E90" s="18"/>
       <c r="F90" s="3"/>
@@ -3259,10 +3298,10 @@
       <c r="A91" s="30"/>
       <c r="B91" s="30"/>
       <c r="C91" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E91" s="18"/>
       <c r="F91" s="3"/>
@@ -3271,10 +3310,10 @@
       <c r="A92" s="30"/>
       <c r="B92" s="30"/>
       <c r="C92" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E92" s="18"/>
       <c r="F92" s="3"/>
@@ -3283,10 +3322,10 @@
       <c r="A93" s="30"/>
       <c r="B93" s="30"/>
       <c r="C93" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E93" s="18"/>
       <c r="F93" s="3"/>
@@ -3295,10 +3334,10 @@
       <c r="A94" s="30"/>
       <c r="B94" s="30"/>
       <c r="C94" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E94" s="18"/>
       <c r="F94" s="3"/>
@@ -3307,10 +3346,10 @@
       <c r="A95" s="30"/>
       <c r="B95" s="30"/>
       <c r="C95" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E95" s="18"/>
       <c r="F95" s="3"/>
@@ -3319,10 +3358,10 @@
       <c r="A96" s="30"/>
       <c r="B96" s="30"/>
       <c r="C96" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E96" s="18"/>
       <c r="F96" s="3"/>
@@ -3331,10 +3370,10 @@
       <c r="A97" s="30"/>
       <c r="B97" s="30"/>
       <c r="C97" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="3"/>
@@ -3343,10 +3382,10 @@
       <c r="A98" s="30"/>
       <c r="B98" s="30"/>
       <c r="C98" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="3"/>
@@ -3355,10 +3394,10 @@
       <c r="A99" s="30"/>
       <c r="B99" s="30"/>
       <c r="C99" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E99" s="18"/>
       <c r="F99" s="3"/>
@@ -3367,10 +3406,10 @@
       <c r="A100" s="30"/>
       <c r="B100" s="30"/>
       <c r="C100" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E100" s="18"/>
       <c r="F100" s="3"/>
@@ -3379,10 +3418,10 @@
       <c r="A101" s="30"/>
       <c r="B101" s="30"/>
       <c r="C101" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E101" s="18"/>
       <c r="F101" s="3"/>
@@ -3391,112 +3430,128 @@
       <c r="A102" s="30"/>
       <c r="B102" s="30"/>
       <c r="C102" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E102" s="18"/>
       <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="31"/>
-      <c r="B103" s="31"/>
+      <c r="A103" s="30"/>
+      <c r="B103" s="30"/>
       <c r="C103" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E103" s="18"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A104" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="5"/>
+    <row r="104" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="31"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="E104" s="18"/>
       <c r="F104" s="3"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="30"/>
+      <c r="A105" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="B105" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C105" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="C105" s="8"/>
       <c r="D105" s="5"/>
       <c r="E105" s="18"/>
-      <c r="F105" s="3"/>
+      <c r="F105" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="30"/>
       <c r="B106" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="5"/>
       <c r="E106" s="18"/>
-      <c r="F106" s="3"/>
+      <c r="F106" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="107" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="30"/>
       <c r="B107" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="5"/>
       <c r="E107" s="18"/>
-      <c r="F107" s="3"/>
+      <c r="F107" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="30"/>
       <c r="B108" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="5"/>
       <c r="E108" s="18"/>
-      <c r="F108" s="3"/>
+      <c r="F108" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="30"/>
       <c r="B109" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="5"/>
       <c r="E109" s="18"/>
-      <c r="F109" s="3"/>
+      <c r="F109" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="110" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="30"/>
       <c r="B110" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="5"/>
       <c r="E110" s="18"/>
-      <c r="F110" s="3"/>
+      <c r="F110" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="30"/>
       <c r="B111" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="5"/>
       <c r="E111" s="18"/>
-      <c r="F111" s="3"/>
+      <c r="F111" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="112" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="30"/>
       <c r="B112" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
@@ -3506,7 +3561,7 @@
     <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="30"/>
       <c r="B113" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="5"/>
@@ -3514,9 +3569,9 @@
       <c r="F113" s="3"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A114" s="31"/>
+      <c r="A114" s="30"/>
       <c r="B114" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="5"/>
@@ -3524,149 +3579,153 @@
       <c r="F114" s="3"/>
     </row>
     <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="29" t="s">
-        <v>113</v>
-      </c>
+      <c r="A115" s="31"/>
       <c r="B115" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="5" t="s">
-        <v>220</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="5"/>
       <c r="E115" s="18"/>
       <c r="F115" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="30"/>
-      <c r="B116" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="C116" s="21" t="s">
-        <v>338</v>
-      </c>
+      <c r="A116" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C116" s="9"/>
       <c r="D116" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E116" s="18"/>
-      <c r="F116" s="10"/>
+      <c r="F116" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="117" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A117" s="30"/>
-      <c r="B117" s="31"/>
+      <c r="B117" s="29" t="s">
+        <v>331</v>
+      </c>
       <c r="C117" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E117" s="18"/>
       <c r="F117" s="10"/>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A118" s="30"/>
-      <c r="B118" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C118" s="9"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="21" t="s">
+        <v>333</v>
+      </c>
       <c r="D118" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E118" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="F118" s="3"/>
-    </row>
-    <row r="119" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+      <c r="E118" s="18"/>
+      <c r="F118" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A119" s="30"/>
-      <c r="B119" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="B119" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119" s="9"/>
       <c r="D119" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E119" s="18"/>
-      <c r="F119" s="10" t="s">
-        <v>61</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="F119" s="3"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="30"/>
-      <c r="B120" s="30"/>
-      <c r="C120" s="21"/>
+      <c r="B120" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>90</v>
+      </c>
       <c r="D120" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="E120" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="F120" s="10"/>
+        <v>223</v>
+      </c>
+      <c r="E120" s="18"/>
+      <c r="F120" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="121" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="30"/>
       <c r="B121" s="30"/>
-      <c r="C121" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="C121" s="31"/>
       <c r="D121" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E121" s="18"/>
-      <c r="F121" s="3"/>
+        <v>336</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="122" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="30"/>
       <c r="B122" s="30"/>
       <c r="C122" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E122" s="18"/>
-      <c r="F122" s="10" t="s">
-        <v>61</v>
-      </c>
+      <c r="F122" s="3"/>
     </row>
     <row r="123" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="30"/>
       <c r="B123" s="30"/>
-      <c r="C123" s="21" t="s">
-        <v>335</v>
+      <c r="C123" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E123" s="18"/>
       <c r="F123" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="30"/>
       <c r="B124" s="30"/>
-      <c r="C124" s="2" t="s">
-        <v>94</v>
+      <c r="C124" s="21" t="s">
+        <v>329</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E124" s="18"/>
-      <c r="F124" s="3"/>
+      <c r="F124" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="125" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="30"/>
       <c r="B125" s="30"/>
       <c r="C125" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E125" s="18"/>
       <c r="F125" s="3"/>
@@ -3675,10 +3734,10 @@
       <c r="A126" s="30"/>
       <c r="B126" s="30"/>
       <c r="C126" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E126" s="18"/>
       <c r="F126" s="3"/>
@@ -3687,10 +3746,10 @@
       <c r="A127" s="30"/>
       <c r="B127" s="30"/>
       <c r="C127" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E127" s="18"/>
       <c r="F127" s="3"/>
@@ -3698,263 +3757,273 @@
     <row r="128" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="30"/>
       <c r="B128" s="30"/>
-      <c r="C128" s="2" t="s">
-        <v>98</v>
+      <c r="C128" s="29" t="s">
+        <v>341</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E128" s="18"/>
-      <c r="F128" s="3"/>
+        <v>224</v>
+      </c>
+      <c r="E128" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="129" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="30"/>
-      <c r="B129" s="31"/>
-      <c r="C129" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="B129" s="30"/>
+      <c r="C129" s="30"/>
       <c r="D129" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E129" s="18"/>
-      <c r="F129" s="3"/>
-    </row>
-    <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+        <v>346</v>
+      </c>
+      <c r="E129" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="30"/>
-      <c r="B130" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="B130" s="30"/>
+      <c r="C130" s="30"/>
       <c r="D130" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E130" s="18"/>
-      <c r="F130" s="3"/>
-    </row>
-    <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="F130" s="10"/>
+    </row>
+    <row r="131" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="30"/>
-      <c r="B131" s="31"/>
-      <c r="C131" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="B131" s="30"/>
+      <c r="C131" s="31"/>
       <c r="D131" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E131" s="18"/>
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="E131" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="F131" s="10"/>
+    </row>
+    <row r="132" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="30"/>
-      <c r="B132" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>64</v>
+      <c r="B132" s="30"/>
+      <c r="C132" s="29" t="s">
+        <v>340</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E132" s="18"/>
-      <c r="F132" s="3"/>
-    </row>
-    <row r="133" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+        <v>225</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="30"/>
-      <c r="B133" s="31"/>
-      <c r="C133" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="B133" s="30"/>
+      <c r="C133" s="31"/>
       <c r="D133" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E133" s="18"/>
+        <v>343</v>
+      </c>
+      <c r="E133" s="18" t="s">
+        <v>344</v>
+      </c>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="30"/>
-      <c r="B134" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C134" s="6"/>
+      <c r="B134" s="30"/>
+      <c r="C134" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="D134" s="5" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E134" s="18"/>
-      <c r="F134" s="3"/>
-    </row>
-    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F134" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="30"/>
-      <c r="B135" s="29" t="s">
-        <v>106</v>
-      </c>
+      <c r="B135" s="30"/>
       <c r="C135" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E135" s="18"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="30"/>
-      <c r="B136" s="30"/>
+      <c r="B136" s="31"/>
       <c r="C136" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E136" s="18"/>
       <c r="F136" s="3"/>
     </row>
     <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A137" s="30"/>
-      <c r="B137" s="31"/>
+      <c r="B137" s="29" t="s">
+        <v>102</v>
+      </c>
       <c r="C137" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>241</v>
+        <v>342</v>
       </c>
       <c r="E137" s="18"/>
       <c r="F137" s="3"/>
     </row>
     <row r="138" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A138" s="30"/>
-      <c r="B138" s="29" t="s">
-        <v>89</v>
-      </c>
+      <c r="B138" s="31"/>
       <c r="C138" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E138" s="18"/>
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A139" s="30"/>
-      <c r="B139" s="30"/>
+      <c r="B139" s="29" t="s">
+        <v>103</v>
+      </c>
       <c r="C139" s="2" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E139" s="18"/>
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A140" s="31"/>
+      <c r="A140" s="30"/>
       <c r="B140" s="31"/>
       <c r="C140" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E140" s="18"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="29" t="s">
-        <v>128</v>
-      </c>
+    <row r="141" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A141" s="30"/>
       <c r="B141" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C141" s="9"/>
+        <v>104</v>
+      </c>
+      <c r="C141" s="6"/>
       <c r="D141" s="5" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E141" s="18"/>
       <c r="F141" s="3"/>
     </row>
     <row r="142" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A142" s="30"/>
-      <c r="B142" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C142" s="9"/>
+      <c r="B142" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="D142" s="5" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E142" s="18"/>
       <c r="F142" s="3"/>
     </row>
     <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A143" s="30"/>
-      <c r="B143" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C143" s="9"/>
+      <c r="B143" s="30"/>
+      <c r="C143" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D143" s="5" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E143" s="18"/>
       <c r="F143" s="3"/>
     </row>
     <row r="144" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A144" s="30"/>
-      <c r="B144" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C144" s="9"/>
+      <c r="B144" s="31"/>
+      <c r="C144" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="D144" s="5" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E144" s="18"/>
       <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A145" s="30"/>
-      <c r="B145" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C145" s="9"/>
+      <c r="B145" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="D145" s="5" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E145" s="18"/>
       <c r="F145" s="3"/>
     </row>
     <row r="146" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A146" s="31"/>
-      <c r="B146" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C146" s="9"/>
+      <c r="A146" s="30"/>
+      <c r="B146" s="30"/>
+      <c r="C146" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="D146" s="5" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E146" s="18"/>
       <c r="F146" s="3"/>
     </row>
     <row r="147" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A147" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C147" s="9"/>
+      <c r="A147" s="31"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="D147" s="5" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E147" s="18"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A148" s="30"/>
+    <row r="148" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="29" t="s">
+        <v>127</v>
+      </c>
       <c r="B148" s="2" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="5" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="E148" s="18"/>
       <c r="F148" s="3"/>
@@ -3962,11 +4031,11 @@
     <row r="149" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A149" s="30"/>
       <c r="B149" s="2" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="5" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E149" s="18"/>
       <c r="F149" s="3"/>
@@ -3974,23 +4043,23 @@
     <row r="150" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A150" s="30"/>
       <c r="B150" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="5" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="E150" s="18"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A151" s="30"/>
       <c r="B151" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="5" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="E151" s="18"/>
       <c r="F151" s="3"/>
@@ -3998,49 +4067,49 @@
     <row r="152" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A152" s="30"/>
       <c r="B152" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="5" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="E152" s="18"/>
       <c r="F152" s="3"/>
     </row>
     <row r="153" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A153" s="30"/>
-      <c r="B153" s="12" t="s">
-        <v>134</v>
+      <c r="A153" s="31"/>
+      <c r="B153" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="5" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E153" s="18"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="31"/>
+    <row r="154" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A154" s="29" t="s">
+        <v>128</v>
+      </c>
       <c r="B154" s="2" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="5" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="E154" s="18"/>
       <c r="F154" s="3"/>
     </row>
     <row r="155" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A155" s="29" t="s">
-        <v>130</v>
-      </c>
+      <c r="A155" s="30"/>
       <c r="B155" s="2" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="5" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="E155" s="18"/>
       <c r="F155" s="3"/>
@@ -4048,11 +4117,11 @@
     <row r="156" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A156" s="30"/>
       <c r="B156" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="5" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="E156" s="18"/>
       <c r="F156" s="3"/>
@@ -4060,23 +4129,23 @@
     <row r="157" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A157" s="30"/>
       <c r="B157" s="2" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="5" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E157" s="18"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="30"/>
       <c r="B158" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="5" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="E158" s="18"/>
       <c r="F158" s="3"/>
@@ -4084,77 +4153,166 @@
     <row r="159" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A159" s="30"/>
       <c r="B159" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="5" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E159" s="18"/>
       <c r="F159" s="3"/>
     </row>
     <row r="160" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A160" s="30"/>
-      <c r="B160" s="2" t="s">
-        <v>126</v>
+      <c r="B160" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="5" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E160" s="18"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="31"/>
       <c r="B161" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="5" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="E161" s="18"/>
       <c r="F161" s="3"/>
     </row>
+    <row r="162" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A162" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C162" s="9"/>
+      <c r="D162" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E162" s="18"/>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A163" s="30"/>
+      <c r="B163" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C163" s="9"/>
+      <c r="D163" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E163" s="18"/>
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A164" s="30"/>
+      <c r="B164" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C164" s="9"/>
+      <c r="D164" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E164" s="18"/>
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="30"/>
+      <c r="B165" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C165" s="9"/>
+      <c r="D165" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E165" s="18"/>
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A166" s="30"/>
+      <c r="B166" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C166" s="9"/>
+      <c r="D166" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E166" s="18"/>
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A167" s="30"/>
+      <c r="B167" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C167" s="9"/>
+      <c r="D167" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E167" s="18"/>
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A168" s="31"/>
+      <c r="B168" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C168" s="9"/>
+      <c r="D168" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E168" s="18"/>
+      <c r="F168" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="A147:A154"/>
-    <mergeCell ref="A155:A161"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="A104:A114"/>
-    <mergeCell ref="B119:B129"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="A115:A140"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="A68:A86"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A55:A67"/>
-    <mergeCell ref="A87:A103"/>
-    <mergeCell ref="B88:B103"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A41:A54"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B38:B40"/>
+  <mergeCells count="39">
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="A148:A153"/>
+    <mergeCell ref="A154:A161"/>
+    <mergeCell ref="A162:A168"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="A105:A115"/>
+    <mergeCell ref="B120:B136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="A116:A147"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="A69:A87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="A56:A68"/>
+    <mergeCell ref="A88:A104"/>
+    <mergeCell ref="B89:B104"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B39:B41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/开发进度/进度甘特图.xlsx
+++ b/doc/开发进度/进度甘特图.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
   <si>
     <t>一级菜单</t>
   </si>
@@ -645,6 +645,9 @@
     <t>生产领料单</t>
   </si>
   <si>
+    <t>生产领料时选择物料时过滤掉线边库</t>
+  </si>
+  <si>
     <t>WM.4.1</t>
   </si>
   <si>
@@ -720,6 +723,9 @@
     <t>WM.12</t>
   </si>
   <si>
+    <t>杂项出库</t>
+  </si>
+  <si>
     <t>封箱、拆箱</t>
   </si>
   <si>
@@ -738,6 +744,9 @@
     <t>WM.14</t>
   </si>
   <si>
+    <t>库存预警</t>
+  </si>
+  <si>
     <t>WM.14.1</t>
   </si>
   <si>
@@ -813,6 +822,39 @@
     <t>批量打印</t>
   </si>
   <si>
+    <t>接口管理</t>
+  </si>
+  <si>
+    <t>ERP接口</t>
+  </si>
+  <si>
+    <t>基础数据同步</t>
+  </si>
+  <si>
+    <t>采购数据同步</t>
+  </si>
+  <si>
+    <t>销售数据同步</t>
+  </si>
+  <si>
+    <t>库存数据同步</t>
+  </si>
+  <si>
+    <t>PLM接口</t>
+  </si>
+  <si>
+    <t>数采接口</t>
+  </si>
+  <si>
+    <t>生产进度采集</t>
+  </si>
+  <si>
+    <t>生产工艺采集</t>
+  </si>
+  <si>
+    <t>质量数据采集</t>
+  </si>
+  <si>
     <t>报表管理</t>
   </si>
   <si>
@@ -988,6 +1030,18 @@
   </si>
   <si>
     <t>参数管理</t>
+  </si>
+  <si>
+    <t>文件管理</t>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>数据库定时备份</t>
+  </si>
+  <si>
+    <t>文件定时备份</t>
   </si>
   <si>
     <t>租户管理</t>
@@ -1374,7 +1428,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1524,11 +1578,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1609,9 +1711,6 @@
     <xf fontId="2" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf fontId="2" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1626,8 +1725,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1635,6 +1732,21 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3120,7 +3232,7 @@
       <c r="B72" s="24"/>
       <c r="C72" s="28"/>
       <c r="D72" s="26"/>
-      <c r="E72" s="30" t="s">
+      <c r="E72" s="27" t="s">
         <v>148</v>
       </c>
       <c r="F72" s="22"/>
@@ -3150,7 +3262,7 @@
       </c>
     </row>
     <row r="75" ht="16.5">
-      <c r="A75" s="31"/>
+      <c r="A75" s="30"/>
       <c r="B75" s="24"/>
       <c r="C75" s="29"/>
       <c r="D75" s="26"/>
@@ -3169,11 +3281,11 @@
         <v>153</v>
       </c>
       <c r="C76" s="17"/>
-      <c r="D76" s="32" t="s">
+      <c r="D76" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="E76" s="33"/>
-      <c r="F76" s="34" t="s">
+      <c r="E76" s="32"/>
+      <c r="F76" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3184,7 +3296,7 @@
       <c r="D77" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E77" s="35" t="s">
+      <c r="E77" s="34" t="s">
         <v>156</v>
       </c>
       <c r="F77" s="9"/>
@@ -3305,7 +3417,7 @@
       <c r="F86" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G86" s="36"/>
+      <c r="G86" s="35"/>
     </row>
     <row r="87" ht="16.5">
       <c r="A87" s="18"/>
@@ -3320,7 +3432,7 @@
       <c r="F87" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G87" s="36"/>
+      <c r="G87" s="35"/>
     </row>
     <row r="88" ht="16.5">
       <c r="A88" s="18"/>
@@ -3335,7 +3447,7 @@
       <c r="F88" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="36"/>
+      <c r="G88" s="35"/>
     </row>
     <row r="89" ht="16.5">
       <c r="A89" s="18"/>
@@ -3350,7 +3462,7 @@
       <c r="F89" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G89" s="36"/>
+      <c r="G89" s="35"/>
     </row>
     <row r="90" ht="16.5">
       <c r="A90" s="18"/>
@@ -3365,7 +3477,7 @@
       <c r="F90" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G90" s="36"/>
+      <c r="G90" s="35"/>
     </row>
     <row r="91" ht="16.5">
       <c r="A91" s="18"/>
@@ -3380,8 +3492,8 @@
       <c r="F91" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
     </row>
     <row r="92" ht="16.5">
       <c r="A92" s="18"/>
@@ -3389,33 +3501,33 @@
         <v>185</v>
       </c>
       <c r="C92" s="17"/>
-      <c r="D92" s="37" t="s">
+      <c r="D92" s="7" t="s">
         <v>186</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="9"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="36"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
     </row>
     <row r="93" ht="13.5" customHeight="1">
       <c r="A93" s="18"/>
       <c r="B93" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C93" s="39"/>
+      <c r="C93" s="36"/>
       <c r="D93" s="7" t="s">
         <v>188</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="7"/>
-      <c r="H93" s="40"/>
+      <c r="H93" s="37"/>
     </row>
     <row r="94" ht="13.5" customHeight="1">
       <c r="A94" s="16"/>
       <c r="B94" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C94" s="39"/>
+      <c r="C94" s="36"/>
       <c r="D94" s="7" t="s">
         <v>190</v>
       </c>
@@ -3535,7 +3647,7 @@
       <c r="D103" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E103" s="41" t="s">
+      <c r="E103" s="38" t="s">
         <v>209</v>
       </c>
       <c r="F103" s="9" t="s">
@@ -3544,29 +3656,23 @@
     </row>
     <row r="104" ht="16.5">
       <c r="A104" s="18"/>
-      <c r="B104" s="12"/>
+      <c r="B104" s="11"/>
       <c r="C104" s="17"/>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="7"/>
+      <c r="E104" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="E104" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="F104" s="9"/>
     </row>
     <row r="105" ht="16.5">
       <c r="A105" s="18"/>
-      <c r="B105" s="5" t="s">
-        <v>212</v>
-      </c>
+      <c r="B105" s="12"/>
       <c r="C105" s="17"/>
       <c r="D105" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E105" s="41" t="s">
-        <v>214</v>
+        <v>211</v>
+      </c>
+      <c r="E105" s="38" t="s">
+        <v>212</v>
       </c>
       <c r="F105" s="9" t="s">
         <v>9</v>
@@ -3574,15 +3680,15 @@
     </row>
     <row r="106" ht="16.5">
       <c r="A106" s="18"/>
-      <c r="B106" s="10" t="s">
-        <v>215</v>
+      <c r="B106" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="C106" s="17"/>
       <c r="D106" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E106" s="41" t="s">
-        <v>217</v>
+        <v>214</v>
+      </c>
+      <c r="E106" s="38" t="s">
+        <v>215</v>
       </c>
       <c r="F106" s="9" t="s">
         <v>9</v>
@@ -3590,13 +3696,15 @@
     </row>
     <row r="107" ht="16.5">
       <c r="A107" s="18"/>
-      <c r="B107" s="11"/>
+      <c r="B107" s="10" t="s">
+        <v>216</v>
+      </c>
       <c r="C107" s="17"/>
       <c r="D107" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E107" s="38" t="s">
         <v>218</v>
-      </c>
-      <c r="E107" s="41" t="s">
-        <v>219</v>
       </c>
       <c r="F107" s="9" t="s">
         <v>9</v>
@@ -3604,43 +3712,41 @@
     </row>
     <row r="108" ht="16.5">
       <c r="A108" s="18"/>
-      <c r="B108" s="12"/>
+      <c r="B108" s="11"/>
       <c r="C108" s="17"/>
       <c r="D108" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E108" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="E108" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F108" s="7"/>
+      <c r="F108" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="109" ht="16.5">
       <c r="A109" s="18"/>
-      <c r="B109" s="5" t="s">
-        <v>222</v>
-      </c>
+      <c r="B109" s="12"/>
       <c r="C109" s="17"/>
       <c r="D109" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="F109" s="7"/>
     </row>
     <row r="110" ht="16.5">
       <c r="A110" s="18"/>
-      <c r="B110" s="10" t="s">
-        <v>225</v>
+      <c r="B110" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="C110" s="17"/>
       <c r="D110" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F110" s="9" t="s">
         <v>9</v>
@@ -3648,34 +3754,38 @@
     </row>
     <row r="111" ht="16.5">
       <c r="A111" s="18"/>
-      <c r="B111" s="12"/>
+      <c r="B111" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="C111" s="17"/>
-      <c r="D111" s="7"/>
+      <c r="D111" s="7" t="s">
+        <v>227</v>
+      </c>
       <c r="E111" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F111" s="7"/>
+      <c r="F111" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="112" ht="16.5">
       <c r="A112" s="18"/>
-      <c r="B112" s="19" t="s">
+      <c r="B112" s="12"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C112" s="17"/>
-      <c r="D112" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E112" s="8"/>
       <c r="F112" s="7"/>
     </row>
     <row r="113" ht="16.5">
       <c r="A113" s="18"/>
       <c r="B113" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="7"/>
@@ -3683,1261 +3793,1181 @@
     <row r="114" ht="16.5">
       <c r="A114" s="18"/>
       <c r="B114" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C114" s="17"/>
       <c r="D114" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="7"/>
     </row>
     <row r="115" ht="16.5">
       <c r="A115" s="18"/>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C115" s="17"/>
+      <c r="D115" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="C115" s="17"/>
-      <c r="D115" s="37" t="s">
-        <v>236</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="7"/>
     </row>
     <row r="116" ht="16.5">
       <c r="A116" s="18"/>
-      <c r="B116" s="12"/>
+      <c r="B116" s="15" t="s">
+        <v>236</v>
+      </c>
       <c r="C116" s="17"/>
-      <c r="D116" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="E116" s="42" t="s">
-        <v>238</v>
-      </c>
+      <c r="D116" s="7"/>
+      <c r="E116" s="8"/>
       <c r="F116" s="7"/>
     </row>
     <row r="117" ht="16.5">
       <c r="A117" s="18"/>
       <c r="B117" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C117" s="17"/>
       <c r="D117" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E117" s="8"/>
-      <c r="F117" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="F117" s="7"/>
     </row>
     <row r="118" ht="16.5">
       <c r="A118" s="18"/>
       <c r="B118" s="12"/>
       <c r="C118" s="17"/>
       <c r="D118" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F118" s="9"/>
+        <v>240</v>
+      </c>
+      <c r="F118" s="7"/>
     </row>
     <row r="119" ht="16.5">
       <c r="A119" s="18"/>
-      <c r="B119" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="C119" s="23" t="s">
-        <v>244</v>
-      </c>
+      <c r="B119" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C119" s="17"/>
       <c r="D119" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E119" s="41" t="s">
-        <v>246</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="E119" s="8"/>
       <c r="F119" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="120" ht="16.5">
       <c r="A120" s="18"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="23"/>
-      <c r="D120" s="7" t="s">
-        <v>247</v>
-      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="7"/>
       <c r="E120" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="F120" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="F120" s="9"/>
     </row>
     <row r="121" ht="16.5">
       <c r="A121" s="18"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="23"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="17"/>
       <c r="D121" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="F121" s="7"/>
+        <v>245</v>
+      </c>
+      <c r="F121" s="9"/>
     </row>
     <row r="122" ht="16.5">
       <c r="A122" s="18"/>
-      <c r="B122" s="18"/>
-      <c r="C122" s="23"/>
+      <c r="B122" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>247</v>
+      </c>
       <c r="D122" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F122" s="7"/>
+        <v>248</v>
+      </c>
+      <c r="E122" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="123" ht="16.5">
       <c r="A123" s="18"/>
       <c r="B123" s="18"/>
       <c r="C123" s="23"/>
       <c r="D123" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E123" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F123" s="7"/>
     </row>
     <row r="124" ht="16.5">
       <c r="A124" s="18"/>
       <c r="B124" s="18"/>
-      <c r="C124" s="31"/>
+      <c r="C124" s="23"/>
       <c r="D124" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F124" s="7"/>
     </row>
     <row r="125" ht="16.5">
       <c r="A125" s="18"/>
       <c r="B125" s="18"/>
-      <c r="C125" s="17" t="s">
-        <v>257</v>
-      </c>
+      <c r="C125" s="23"/>
       <c r="D125" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="E125" s="8"/>
+        <v>254</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>255</v>
+      </c>
       <c r="F125" s="7"/>
     </row>
-    <row r="126" ht="16.5" customHeight="1">
+    <row r="126" ht="16.5">
       <c r="A126" s="18"/>
       <c r="B126" s="18"/>
-      <c r="C126" s="15" t="s">
-        <v>259</v>
-      </c>
+      <c r="C126" s="23"/>
       <c r="D126" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E126" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="F126" s="7"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
+        <v>256</v>
+      </c>
+      <c r="E126" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" ht="16.5">
       <c r="A127" s="18"/>
       <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
+      <c r="C127" s="30"/>
       <c r="D127" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" ht="16.5" customHeight="1">
+    <row r="128" ht="16.5">
       <c r="A128" s="18"/>
       <c r="B128" s="18"/>
-      <c r="C128" s="16"/>
+      <c r="C128" s="17" t="s">
+        <v>260</v>
+      </c>
       <c r="D128" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E128" s="8"/>
+      <c r="F128" s="7"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c r="A129" s="18"/>
+      <c r="B129" s="18"/>
+      <c r="C129" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E129" s="38" t="s">
         <v>264</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F128" s="7"/>
-    </row>
-    <row r="129" ht="16.5">
-      <c r="A129" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E129" s="41" t="s">
-        <v>269</v>
       </c>
       <c r="F129" s="7"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="18"/>
-      <c r="B130" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>271</v>
-      </c>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
       <c r="D130" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E130" s="8"/>
+        <v>265</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="F130" s="7"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="18"/>
       <c r="B131" s="18"/>
-      <c r="C131" s="17" t="s">
-        <v>273</v>
-      </c>
+      <c r="C131" s="16"/>
       <c r="D131" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="E131" s="8"/>
+        <v>267</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>268</v>
+      </c>
       <c r="F131" s="7"/>
     </row>
     <row r="132" ht="16.5" customHeight="1">
-      <c r="A132" s="18"/>
-      <c r="B132" s="18"/>
-      <c r="C132" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>276</v>
-      </c>
+      <c r="A132" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="B132" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C132" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D132" s="7"/>
       <c r="E132" s="8"/>
       <c r="F132" s="7"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
-      <c r="A133" s="18"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>277</v>
-      </c>
+      <c r="A133" s="41"/>
+      <c r="B133" s="41"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="7"/>
       <c r="E133" s="8"/>
       <c r="F133" s="7"/>
     </row>
     <row r="134" ht="16.5" customHeight="1">
-      <c r="A134" s="18"/>
-      <c r="B134" s="18"/>
-      <c r="C134" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="A134" s="41"/>
+      <c r="B134" s="41"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="7"/>
       <c r="E134" s="8"/>
       <c r="F134" s="7"/>
     </row>
     <row r="135" ht="16.5" customHeight="1">
-      <c r="A135" s="18"/>
-      <c r="B135" s="18"/>
-      <c r="C135" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>281</v>
-      </c>
+      <c r="A135" s="41"/>
+      <c r="B135" s="41"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="7"/>
       <c r="E135" s="8"/>
       <c r="F135" s="7"/>
     </row>
     <row r="136" ht="16.5" customHeight="1">
-      <c r="A136" s="18"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>283</v>
-      </c>
+      <c r="A136" s="41"/>
+      <c r="B136" s="41"/>
+      <c r="C136" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D136" s="7"/>
       <c r="E136" s="8"/>
       <c r="F136" s="7"/>
     </row>
     <row r="137" ht="16.5" customHeight="1">
-      <c r="A137" s="18"/>
-      <c r="B137" s="18"/>
-      <c r="C137" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>285</v>
-      </c>
+      <c r="A137" s="41"/>
+      <c r="B137" s="41"/>
+      <c r="C137" s="28"/>
+      <c r="D137" s="7"/>
       <c r="E137" s="8"/>
       <c r="F137" s="7"/>
     </row>
     <row r="138" ht="16.5" customHeight="1">
-      <c r="A138" s="18"/>
-      <c r="B138" s="18"/>
-      <c r="C138" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>287</v>
-      </c>
+      <c r="A138" s="41"/>
+      <c r="B138" s="41"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="7"/>
       <c r="E138" s="8"/>
       <c r="F138" s="7"/>
     </row>
     <row r="139" ht="16.5" customHeight="1">
-      <c r="A139" s="18"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>289</v>
-      </c>
+      <c r="A139" s="41"/>
+      <c r="B139" s="41"/>
+      <c r="C139" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="D139" s="7"/>
       <c r="E139" s="8"/>
       <c r="F139" s="7"/>
     </row>
     <row r="140" ht="16.5" customHeight="1">
-      <c r="A140" s="18"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>291</v>
-      </c>
+      <c r="A140" s="41"/>
+      <c r="B140" s="41"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="7"/>
       <c r="E140" s="8"/>
       <c r="F140" s="7"/>
     </row>
     <row r="141" ht="16.5" customHeight="1">
-      <c r="A141" s="18"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>293</v>
-      </c>
+      <c r="A141" s="41"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="7"/>
       <c r="E141" s="8"/>
       <c r="F141" s="7"/>
     </row>
     <row r="142" ht="16.5" customHeight="1">
-      <c r="A142" s="18"/>
-      <c r="B142" s="18"/>
-      <c r="C142" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>295</v>
-      </c>
+      <c r="A142" s="41"/>
+      <c r="B142" s="41"/>
+      <c r="C142" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="D142" s="7"/>
       <c r="E142" s="8"/>
       <c r="F142" s="7"/>
     </row>
     <row r="143" ht="16.5" customHeight="1">
-      <c r="A143" s="18"/>
-      <c r="B143" s="18"/>
-      <c r="C143" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>297</v>
-      </c>
+      <c r="A143" s="41"/>
+      <c r="B143" s="41"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="7"/>
       <c r="E143" s="8"/>
       <c r="F143" s="7"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="18"/>
-      <c r="B144" s="18"/>
-      <c r="C144" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>299</v>
-      </c>
+      <c r="A144" s="41"/>
+      <c r="B144" s="41"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="7"/>
       <c r="E144" s="8"/>
       <c r="F144" s="7"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="16"/>
-      <c r="B145" s="16"/>
-      <c r="C145" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>301</v>
-      </c>
+      <c r="A145" s="41"/>
+      <c r="B145" s="42"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="7"/>
       <c r="E145" s="8"/>
       <c r="F145" s="7"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B146" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C146" s="19" t="s">
-        <v>304</v>
-      </c>
+      <c r="A146" s="41"/>
+      <c r="B146" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C146" s="29"/>
       <c r="D146" s="7"/>
-      <c r="E146" s="8" t="s">
-        <v>305</v>
-      </c>
+      <c r="E146" s="8"/>
       <c r="F146" s="7"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="18"/>
-      <c r="B147" s="18"/>
-      <c r="C147" s="19" t="s">
-        <v>306</v>
-      </c>
+      <c r="A147" s="41"/>
+      <c r="B147" s="41"/>
+      <c r="C147" s="29"/>
       <c r="D147" s="7"/>
-      <c r="E147" s="8" t="s">
-        <v>305</v>
-      </c>
+      <c r="E147" s="8"/>
       <c r="F147" s="7"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="18"/>
-      <c r="B148" s="18"/>
-      <c r="C148" s="19" t="s">
-        <v>307</v>
-      </c>
+      <c r="A148" s="41"/>
+      <c r="B148" s="42"/>
+      <c r="C148" s="29"/>
       <c r="D148" s="7"/>
-      <c r="E148" s="8" t="s">
-        <v>305</v>
-      </c>
+      <c r="E148" s="8"/>
       <c r="F148" s="7"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="18"/>
-      <c r="B149" s="18"/>
-      <c r="C149" s="19" t="s">
-        <v>308</v>
+      <c r="A149" s="41"/>
+      <c r="B149" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="C149" s="29" t="s">
+        <v>277</v>
       </c>
       <c r="D149" s="7"/>
-      <c r="E149" s="8" t="s">
-        <v>309</v>
-      </c>
+      <c r="E149" s="8"/>
       <c r="F149" s="7"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="18"/>
-      <c r="B150" s="18"/>
-      <c r="C150" s="19" t="s">
-        <v>310</v>
+      <c r="A150" s="41"/>
+      <c r="B150" s="41"/>
+      <c r="C150" s="29" t="s">
+        <v>278</v>
       </c>
       <c r="D150" s="7"/>
-      <c r="E150" s="8" t="s">
-        <v>311</v>
-      </c>
+      <c r="E150" s="8"/>
       <c r="F150" s="7"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="18"/>
-      <c r="B151" s="18"/>
-      <c r="C151" s="19" t="s">
-        <v>312</v>
+      <c r="A151" s="42"/>
+      <c r="B151" s="42"/>
+      <c r="C151" s="29" t="s">
+        <v>279</v>
       </c>
       <c r="D151" s="7"/>
-      <c r="E151" s="8" t="s">
-        <v>313</v>
-      </c>
+      <c r="E151" s="8"/>
       <c r="F151" s="7"/>
     </row>
-    <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="18"/>
-      <c r="B152" s="16"/>
-      <c r="C152" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="D152" s="7"/>
-      <c r="E152" s="8" t="s">
-        <v>315</v>
+    <row r="152" ht="16.5">
+      <c r="A152" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E152" s="38" t="s">
+        <v>283</v>
       </c>
       <c r="F152" s="7"/>
     </row>
-    <row r="153" ht="16.5">
+    <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="18"/>
-      <c r="B153" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
+      <c r="B153" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>286</v>
+      </c>
       <c r="E153" s="8"/>
-      <c r="F153" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="154" ht="16.5">
+      <c r="F153" s="7"/>
+    </row>
+    <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="18"/>
-      <c r="B154" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="C154" s="17"/>
-      <c r="D154" s="7"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>288</v>
+      </c>
       <c r="E154" s="8"/>
-      <c r="F154" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" ht="16.5">
+      <c r="F154" s="7"/>
+    </row>
+    <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="18"/>
-      <c r="B155" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="C155" s="17"/>
-      <c r="D155" s="7"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>290</v>
+      </c>
       <c r="E155" s="8"/>
-      <c r="F155" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="156" ht="16.5">
+      <c r="F155" s="7"/>
+    </row>
+    <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="18"/>
-      <c r="B156" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="C156" s="17"/>
-      <c r="D156" s="7"/>
+      <c r="B156" s="18"/>
+      <c r="C156" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="E156" s="8"/>
-      <c r="F156" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" ht="16.5">
+      <c r="F156" s="7"/>
+    </row>
+    <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="18"/>
-      <c r="B157" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="C157" s="17"/>
-      <c r="D157" s="7"/>
+      <c r="B157" s="18"/>
+      <c r="C157" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>293</v>
+      </c>
       <c r="E157" s="8"/>
-      <c r="F157" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" ht="16.5">
+      <c r="F157" s="7"/>
+    </row>
+    <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="18"/>
-      <c r="B158" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="C158" s="17"/>
-      <c r="D158" s="7"/>
+      <c r="B158" s="18"/>
+      <c r="C158" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>295</v>
+      </c>
       <c r="E158" s="8"/>
-      <c r="F158" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" ht="16.5">
+      <c r="F158" s="7"/>
+    </row>
+    <row r="159" ht="16.5" customHeight="1">
       <c r="A159" s="18"/>
-      <c r="B159" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="C159" s="17"/>
-      <c r="D159" s="7"/>
+      <c r="B159" s="18"/>
+      <c r="C159" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>297</v>
+      </c>
       <c r="E159" s="8"/>
-      <c r="F159" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" ht="16.5">
+      <c r="F159" s="7"/>
+    </row>
+    <row r="160" ht="16.5" customHeight="1">
       <c r="A160" s="18"/>
-      <c r="B160" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="C160" s="17"/>
-      <c r="D160" s="7"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>299</v>
+      </c>
       <c r="E160" s="8"/>
-      <c r="F160" s="9"/>
-    </row>
-    <row r="161" ht="16.5">
+      <c r="F160" s="7"/>
+    </row>
+    <row r="161" ht="16.5" customHeight="1">
       <c r="A161" s="18"/>
-      <c r="B161" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="C161" s="17"/>
-      <c r="D161" s="7"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>301</v>
+      </c>
       <c r="E161" s="8"/>
       <c r="F161" s="7"/>
     </row>
-    <row r="162" ht="16.5">
+    <row r="162" ht="16.5" customHeight="1">
       <c r="A162" s="18"/>
-      <c r="B162" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="C162" s="17"/>
-      <c r="D162" s="7"/>
+      <c r="B162" s="18"/>
+      <c r="C162" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>303</v>
+      </c>
       <c r="E162" s="8"/>
       <c r="F162" s="7"/>
     </row>
-    <row r="163" ht="16.5">
+    <row r="163" ht="16.5" customHeight="1">
       <c r="A163" s="18"/>
-      <c r="B163" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="C163" s="17"/>
-      <c r="D163" s="7"/>
+      <c r="B163" s="18"/>
+      <c r="C163" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="E163" s="8"/>
       <c r="F163" s="7"/>
     </row>
-    <row r="164" ht="16.5">
-      <c r="A164" s="16"/>
-      <c r="B164" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="C164" s="17"/>
-      <c r="D164" s="7"/>
+    <row r="164" ht="16.5" customHeight="1">
+      <c r="A164" s="18"/>
+      <c r="B164" s="18"/>
+      <c r="C164" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="E164" s="8"/>
-      <c r="F164" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165" ht="16.5">
-      <c r="A165" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="B165" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="C165" s="43"/>
+      <c r="F164" s="7"/>
+    </row>
+    <row r="165" ht="16.5" customHeight="1">
+      <c r="A165" s="18"/>
+      <c r="B165" s="18"/>
+      <c r="C165" s="17" t="s">
+        <v>308</v>
+      </c>
       <c r="D165" s="7" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="E165" s="8"/>
-      <c r="F165" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" ht="16.5">
+      <c r="F165" s="7"/>
+    </row>
+    <row r="166" ht="16.5" customHeight="1">
       <c r="A166" s="18"/>
-      <c r="B166" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="C166" s="19" t="s">
-        <v>332</v>
+      <c r="B166" s="18"/>
+      <c r="C166" s="17" t="s">
+        <v>310</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="E166" s="8"/>
-      <c r="F166" s="9"/>
+      <c r="F166" s="7"/>
     </row>
     <row r="167" ht="16.5" customHeight="1">
       <c r="A167" s="18"/>
       <c r="B167" s="18"/>
-      <c r="C167" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="D167" s="7"/>
-      <c r="E167" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="F167" s="9"/>
+      <c r="C167" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E167" s="8"/>
+      <c r="F167" s="7"/>
     </row>
     <row r="168" ht="16.5" customHeight="1">
-      <c r="A168" s="18"/>
+      <c r="A168" s="16"/>
       <c r="B168" s="16"/>
-      <c r="C168" s="16"/>
+      <c r="C168" s="17" t="s">
+        <v>314</v>
+      </c>
       <c r="D168" s="7" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="E168" s="8"/>
-      <c r="F168" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" ht="16.5">
-      <c r="A169" s="18"/>
-      <c r="B169" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="C169" s="43"/>
-      <c r="D169" s="7" t="s">
-        <v>337</v>
-      </c>
+      <c r="F168" s="7"/>
+    </row>
+    <row r="169" ht="16.5" customHeight="1">
+      <c r="A169" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C169" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="D169" s="7"/>
       <c r="E169" s="8" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="F169" s="7"/>
     </row>
     <row r="170" ht="16.5" customHeight="1">
       <c r="A170" s="18"/>
-      <c r="B170" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="C170" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="E170" s="8"/>
-      <c r="F170" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B170" s="18"/>
+      <c r="C170" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="D170" s="7"/>
+      <c r="E170" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="F170" s="7"/>
     </row>
     <row r="171" ht="16.5" customHeight="1">
       <c r="A171" s="18"/>
       <c r="B171" s="18"/>
-      <c r="C171" s="16"/>
-      <c r="D171" s="7" t="s">
-        <v>342</v>
-      </c>
+      <c r="C171" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D171" s="7"/>
       <c r="E171" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="F171" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="F171" s="7"/>
     </row>
     <row r="172" ht="16.5" customHeight="1">
       <c r="A172" s="18"/>
       <c r="B172" s="18"/>
       <c r="C172" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="E172" s="8"/>
+        <v>322</v>
+      </c>
+      <c r="D172" s="7"/>
+      <c r="E172" s="8" t="s">
+        <v>323</v>
+      </c>
       <c r="F172" s="7"/>
     </row>
     <row r="173" ht="16.5" customHeight="1">
       <c r="A173" s="18"/>
       <c r="B173" s="18"/>
       <c r="C173" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="E173" s="8"/>
-      <c r="F173" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="D173" s="7"/>
+      <c r="E173" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F173" s="7"/>
     </row>
     <row r="174" ht="16.5" customHeight="1">
       <c r="A174" s="18"/>
       <c r="B174" s="18"/>
       <c r="C174" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E174" s="8"/>
-      <c r="F174" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="D174" s="7"/>
+      <c r="E174" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="F174" s="7"/>
     </row>
     <row r="175" ht="16.5" customHeight="1">
       <c r="A175" s="18"/>
-      <c r="B175" s="18"/>
-      <c r="C175" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>345</v>
-      </c>
+      <c r="B175" s="16"/>
+      <c r="C175" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="D175" s="7"/>
       <c r="E175" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="F175" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="176" ht="16.5" customHeight="1">
+        <v>329</v>
+      </c>
+      <c r="F175" s="7"/>
+    </row>
+    <row r="176" ht="16.5">
       <c r="A176" s="18"/>
-      <c r="B176" s="18"/>
-      <c r="C176" s="18"/>
-      <c r="D176" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="E176" s="8" t="s">
-        <v>352</v>
-      </c>
+      <c r="B176" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="8"/>
       <c r="F176" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="177" ht="16.5" customHeight="1">
+    <row r="177" ht="16.5">
       <c r="A177" s="18"/>
-      <c r="B177" s="18"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="E177" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="F177" s="9"/>
-    </row>
-    <row r="178" ht="16.5" customHeight="1">
+      <c r="B177" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C177" s="17"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="8"/>
+      <c r="F177" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" ht="16.5">
       <c r="A178" s="18"/>
-      <c r="B178" s="18"/>
-      <c r="C178" s="16"/>
-      <c r="D178" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="E178" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="F178" s="9"/>
-    </row>
-    <row r="179" ht="16.5" customHeight="1">
+      <c r="B178" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C178" s="17"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="8"/>
+      <c r="F178" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" ht="16.5">
       <c r="A179" s="18"/>
-      <c r="B179" s="18"/>
-      <c r="C179" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="E179" s="8" t="s">
-        <v>358</v>
-      </c>
+      <c r="B179" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C179" s="17"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="8"/>
       <c r="F179" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="180" ht="16.5" customHeight="1">
+    <row r="180" ht="16.5">
       <c r="A180" s="18"/>
-      <c r="B180" s="18"/>
-      <c r="C180" s="16"/>
-      <c r="D180" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="E180" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="F180" s="7"/>
-    </row>
-    <row r="181" ht="16.5" customHeight="1">
+      <c r="B180" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C180" s="17"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" ht="16.5">
       <c r="A181" s="18"/>
-      <c r="B181" s="18"/>
-      <c r="C181" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>348</v>
-      </c>
+      <c r="B181" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="C181" s="17"/>
+      <c r="D181" s="7"/>
       <c r="E181" s="8"/>
       <c r="F181" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="182" ht="16.5" customHeight="1">
+    <row r="182" ht="16.5">
       <c r="A182" s="18"/>
-      <c r="B182" s="18"/>
-      <c r="C182" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>363</v>
-      </c>
+      <c r="B182" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C182" s="17"/>
+      <c r="D182" s="7"/>
       <c r="E182" s="8"/>
-      <c r="F182" s="7"/>
-    </row>
-    <row r="183" ht="16.5" customHeight="1">
+      <c r="F182" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" ht="16.5">
       <c r="A183" s="18"/>
-      <c r="B183" s="16"/>
-      <c r="C183" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>365</v>
-      </c>
+      <c r="B183" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C183" s="17"/>
+      <c r="D183" s="7"/>
       <c r="E183" s="8"/>
-      <c r="F183" s="7"/>
+      <c r="F183" s="9"/>
     </row>
     <row r="184" ht="16.5">
       <c r="A184" s="18"/>
       <c r="B184" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C184" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="D184" s="7" t="s">
-        <v>367</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C184" s="17"/>
+      <c r="D184" s="7"/>
       <c r="E184" s="8"/>
       <c r="F184" s="7"/>
     </row>
     <row r="185" ht="16.5">
-      <c r="A185" s="18"/>
-      <c r="B185" s="16"/>
-      <c r="C185" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="D185" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="A185" s="23"/>
+      <c r="B185" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="C185" s="44"/>
+      <c r="D185" s="7"/>
       <c r="E185" s="8"/>
       <c r="F185" s="7"/>
     </row>
     <row r="186" ht="16.5">
-      <c r="A186" s="18"/>
-      <c r="B186" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="C186" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="E186" s="8"/>
+      <c r="A186" s="23"/>
+      <c r="B186" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="C186" s="44"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="8" t="s">
+        <v>341</v>
+      </c>
       <c r="F186" s="7"/>
     </row>
     <row r="187" ht="16.5">
-      <c r="A187" s="18"/>
-      <c r="B187" s="16"/>
-      <c r="C187" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="E187" s="8"/>
+      <c r="A187" s="23"/>
+      <c r="B187" s="42"/>
+      <c r="C187" s="44"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="8" t="s">
+        <v>342</v>
+      </c>
       <c r="F187" s="7"/>
     </row>
     <row r="188" ht="16.5">
       <c r="A188" s="18"/>
-      <c r="B188" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="C188" s="39"/>
-      <c r="D188" s="7" t="s">
-        <v>375</v>
-      </c>
+      <c r="B188" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C188" s="17"/>
+      <c r="D188" s="7"/>
       <c r="E188" s="8"/>
       <c r="F188" s="7"/>
     </row>
     <row r="189" ht="16.5">
       <c r="A189" s="18"/>
-      <c r="B189" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="C189" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>378</v>
-      </c>
+      <c r="B189" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="C189" s="17"/>
+      <c r="D189" s="7"/>
       <c r="E189" s="8"/>
       <c r="F189" s="7"/>
     </row>
     <row r="190" ht="16.5">
-      <c r="A190" s="18"/>
-      <c r="B190" s="18"/>
-      <c r="C190" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>380</v>
-      </c>
+      <c r="A190" s="16"/>
+      <c r="B190" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="C190" s="17"/>
+      <c r="D190" s="7"/>
       <c r="E190" s="8"/>
-      <c r="F190" s="7"/>
+      <c r="F190" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="191" ht="16.5">
-      <c r="A191" s="18"/>
-      <c r="B191" s="18"/>
-      <c r="C191" s="19" t="s">
-        <v>381</v>
-      </c>
+      <c r="A191" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B191" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="C191" s="45"/>
       <c r="D191" s="7" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="E191" s="8"/>
-      <c r="F191" s="7"/>
+      <c r="F191" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="192" ht="16.5">
       <c r="A192" s="18"/>
-      <c r="B192" s="18"/>
+      <c r="B192" s="15" t="s">
+        <v>349</v>
+      </c>
       <c r="C192" s="19" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="E192" s="8"/>
-      <c r="F192" s="7"/>
-    </row>
-    <row r="193" ht="16.5">
+      <c r="F192" s="9"/>
+    </row>
+    <row r="193" ht="16.5" customHeight="1">
       <c r="A193" s="18"/>
-      <c r="B193" s="16"/>
-      <c r="C193" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E193" s="8"/>
-      <c r="F193" s="7"/>
-      <c r="I193" s="44"/>
-      <c r="J193" s="44"/>
-    </row>
-    <row r="194" ht="16.5">
+      <c r="B193" s="18"/>
+      <c r="C193" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="D193" s="7"/>
+      <c r="E193" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="F193" s="9"/>
+    </row>
+    <row r="194" ht="16.5" customHeight="1">
       <c r="A194" s="18"/>
-      <c r="B194" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="C194" s="19" t="s">
-        <v>388</v>
-      </c>
+      <c r="B194" s="16"/>
+      <c r="C194" s="16"/>
       <c r="D194" s="7" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="E194" s="8"/>
-      <c r="F194" s="7"/>
+      <c r="F194" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="195" ht="16.5">
       <c r="A195" s="18"/>
-      <c r="B195" s="18"/>
-      <c r="C195" s="19" t="s">
-        <v>389</v>
-      </c>
+      <c r="B195" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C195" s="45"/>
       <c r="D195" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="E195" s="8"/>
+        <v>355</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>356</v>
+      </c>
       <c r="F195" s="7"/>
     </row>
-    <row r="196" ht="16.5">
-      <c r="A196" s="16"/>
-      <c r="B196" s="16"/>
-      <c r="C196" s="19" t="s">
-        <v>390</v>
+    <row r="196" ht="16.5" customHeight="1">
+      <c r="A196" s="18"/>
+      <c r="B196" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C196" s="15" t="s">
+        <v>358</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="E196" s="8"/>
-      <c r="F196" s="7"/>
-    </row>
-    <row r="197" ht="13.5" customHeight="1">
-      <c r="A197" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="B197" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="C197" s="43"/>
+      <c r="F196" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" ht="16.5" customHeight="1">
+      <c r="A197" s="18"/>
+      <c r="B197" s="18"/>
+      <c r="C197" s="16"/>
       <c r="D197" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="E197" s="8"/>
-      <c r="F197" s="7"/>
-    </row>
-    <row r="198" ht="16.5">
+        <v>360</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" ht="16.5" customHeight="1">
       <c r="A198" s="18"/>
-      <c r="B198" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="C198" s="43"/>
+      <c r="B198" s="18"/>
+      <c r="C198" s="19" t="s">
+        <v>362</v>
+      </c>
       <c r="D198" s="7" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="E198" s="8"/>
       <c r="F198" s="7"/>
     </row>
-    <row r="199" ht="16.5">
+    <row r="199" ht="16.5" customHeight="1">
       <c r="A199" s="18"/>
-      <c r="B199" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="C199" s="43"/>
+      <c r="B199" s="18"/>
+      <c r="C199" s="19" t="s">
+        <v>364</v>
+      </c>
       <c r="D199" s="7" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="E199" s="8"/>
-      <c r="F199" s="7"/>
-    </row>
-    <row r="200" ht="16.5">
+      <c r="F199" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" ht="16.5" customHeight="1">
       <c r="A200" s="18"/>
-      <c r="B200" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="C200" s="43"/>
+      <c r="B200" s="18"/>
+      <c r="C200" s="19" t="s">
+        <v>142</v>
+      </c>
       <c r="D200" s="7" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="E200" s="8"/>
-      <c r="F200" s="7"/>
-    </row>
-    <row r="201" ht="16.5">
+      <c r="F200" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" ht="16.5" customHeight="1">
       <c r="A201" s="18"/>
-      <c r="B201" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="C201" s="43"/>
+      <c r="B201" s="18"/>
+      <c r="C201" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="D201" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="E201" s="8"/>
-      <c r="F201" s="7"/>
+        <v>363</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="202" ht="16.5" customHeight="1">
       <c r="A202" s="18"/>
-      <c r="B202" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="C202" s="43" t="s">
-        <v>400</v>
-      </c>
+      <c r="B202" s="18"/>
+      <c r="C202" s="18"/>
       <c r="D202" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="E202" s="8"/>
-      <c r="F202" s="7"/>
+        <v>369</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F202" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="203" ht="16.5" customHeight="1">
       <c r="A203" s="18"/>
       <c r="B203" s="18"/>
-      <c r="C203" s="43" t="s">
-        <v>402</v>
-      </c>
+      <c r="C203" s="18"/>
       <c r="D203" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="E203" s="8"/>
-      <c r="F203" s="7"/>
+        <v>371</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F203" s="9"/>
     </row>
     <row r="204" ht="16.5" customHeight="1">
-      <c r="A204" s="16"/>
-      <c r="B204" s="16"/>
-      <c r="C204" s="43" t="s">
-        <v>404</v>
-      </c>
+      <c r="A204" s="18"/>
+      <c r="B204" s="18"/>
+      <c r="C204" s="16"/>
       <c r="D204" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="E204" s="8"/>
-      <c r="F204" s="7"/>
-    </row>
-    <row r="205" ht="16.5">
-      <c r="A205" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="B205" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C205" s="43"/>
+        <v>373</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F204" s="9"/>
+    </row>
+    <row r="205" ht="16.5" customHeight="1">
+      <c r="A205" s="18"/>
+      <c r="B205" s="18"/>
+      <c r="C205" s="15" t="s">
+        <v>375</v>
+      </c>
       <c r="D205" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="E205" s="8"/>
-      <c r="F205" s="7"/>
-    </row>
-    <row r="206" ht="16.5">
+        <v>365</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="F205" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="18"/>
-      <c r="B206" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="C206" s="43"/>
+      <c r="B206" s="18"/>
+      <c r="C206" s="16"/>
       <c r="D206" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="E206" s="8"/>
+        <v>377</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>378</v>
+      </c>
       <c r="F206" s="7"/>
     </row>
-    <row r="207" ht="16.5">
+    <row r="207" ht="16.5" customHeight="1">
       <c r="A207" s="18"/>
-      <c r="B207" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C207" s="43"/>
+      <c r="B207" s="18"/>
+      <c r="C207" s="19" t="s">
+        <v>379</v>
+      </c>
       <c r="D207" s="7" t="s">
-        <v>410</v>
+        <v>366</v>
       </c>
       <c r="E207" s="8"/>
-      <c r="F207" s="7"/>
-    </row>
-    <row r="208" ht="16.5">
+      <c r="F207" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" ht="16.5" customHeight="1">
       <c r="A208" s="18"/>
-      <c r="B208" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="C208" s="43"/>
+      <c r="B208" s="18"/>
+      <c r="C208" s="19" t="s">
+        <v>380</v>
+      </c>
       <c r="D208" s="7" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="E208" s="8"/>
       <c r="F208" s="7"/>
     </row>
-    <row r="209" ht="13.5" customHeight="1">
+    <row r="209" ht="16.5" customHeight="1">
       <c r="A209" s="18"/>
-      <c r="B209" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C209" s="43"/>
+      <c r="B209" s="16"/>
+      <c r="C209" s="19" t="s">
+        <v>382</v>
+      </c>
       <c r="D209" s="7" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="E209" s="8"/>
       <c r="F209" s="7"/>
     </row>
     <row r="210" ht="16.5">
       <c r="A210" s="18"/>
-      <c r="B210" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="C210" s="43"/>
+      <c r="B210" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C210" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="D210" s="7" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="E210" s="8"/>
       <c r="F210" s="7"/>
     </row>
     <row r="211" ht="16.5">
       <c r="A211" s="18"/>
-      <c r="B211" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="C211" s="43"/>
+      <c r="B211" s="16"/>
+      <c r="C211" s="19" t="s">
+        <v>386</v>
+      </c>
       <c r="D211" s="7" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="E211" s="8"/>
       <c r="F211" s="7"/>
     </row>
-    <row r="212" ht="13.5" customHeight="1">
-      <c r="A212" s="16"/>
-      <c r="B212" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="C212" s="43"/>
+    <row r="212" ht="16.5">
+      <c r="A212" s="18"/>
+      <c r="B212" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C212" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D212" s="7" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="E212" s="8"/>
       <c r="F212" s="7"/>
     </row>
     <row r="213" ht="16.5">
-      <c r="A213" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="B213" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="C213" s="43"/>
+      <c r="A213" s="18"/>
+      <c r="B213" s="16"/>
+      <c r="C213" s="19" t="s">
+        <v>390</v>
+      </c>
       <c r="D213" s="7" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="E213" s="8"/>
       <c r="F213" s="7"/>
@@ -4945,77 +4975,403 @@
     <row r="214" ht="16.5">
       <c r="A214" s="18"/>
       <c r="B214" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="C214" s="43"/>
+        <v>392</v>
+      </c>
+      <c r="C214" s="36"/>
       <c r="D214" s="7" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="E214" s="8"/>
       <c r="F214" s="7"/>
     </row>
     <row r="215" ht="16.5">
       <c r="A215" s="18"/>
-      <c r="B215" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="C215" s="43"/>
+      <c r="B215" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C215" s="19" t="s">
+        <v>395</v>
+      </c>
       <c r="D215" s="7" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="E215" s="8"/>
       <c r="F215" s="7"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" ht="16.5">
       <c r="A216" s="18"/>
-      <c r="B216" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="C216" s="43"/>
+      <c r="B216" s="18"/>
+      <c r="C216" s="19" t="s">
+        <v>397</v>
+      </c>
       <c r="D216" s="7" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="E216" s="8"/>
       <c r="F216" s="7"/>
     </row>
     <row r="217" ht="16.5">
       <c r="A217" s="18"/>
-      <c r="B217" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="C217" s="43"/>
+      <c r="B217" s="18"/>
+      <c r="C217" s="19" t="s">
+        <v>399</v>
+      </c>
       <c r="D217" s="7" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="E217" s="8"/>
       <c r="F217" s="7"/>
     </row>
     <row r="218" ht="16.5">
       <c r="A218" s="18"/>
-      <c r="B218" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="C218" s="43"/>
+      <c r="B218" s="18"/>
+      <c r="C218" s="19" t="s">
+        <v>401</v>
+      </c>
       <c r="D218" s="7" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="E218" s="8"/>
       <c r="F218" s="7"/>
     </row>
     <row r="219" ht="16.5">
-      <c r="A219" s="16"/>
-      <c r="B219" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="C219" s="43"/>
+      <c r="A219" s="18"/>
+      <c r="B219" s="16"/>
+      <c r="C219" s="18" t="s">
+        <v>403</v>
+      </c>
       <c r="D219" s="7" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="E219" s="8"/>
       <c r="F219" s="7"/>
+      <c r="I219" s="46"/>
+      <c r="J219" s="46"/>
+    </row>
+    <row r="220" ht="16.5">
+      <c r="A220" s="18"/>
+      <c r="B220" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="C220" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E220" s="8"/>
+      <c r="F220" s="7"/>
+    </row>
+    <row r="221" ht="16.5">
+      <c r="A221" s="18"/>
+      <c r="B221" s="18"/>
+      <c r="C221" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E221" s="8"/>
+      <c r="F221" s="7"/>
+    </row>
+    <row r="222" ht="16.5">
+      <c r="A222" s="16"/>
+      <c r="B222" s="16"/>
+      <c r="C222" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E222" s="8"/>
+      <c r="F222" s="7"/>
+    </row>
+    <row r="223" ht="13.5" customHeight="1">
+      <c r="A223" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="B223" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="C223" s="45"/>
+      <c r="D223" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E223" s="8"/>
+      <c r="F223" s="7"/>
+    </row>
+    <row r="224" ht="16.5">
+      <c r="A224" s="18"/>
+      <c r="B224" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C224" s="45"/>
+      <c r="D224" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E224" s="8"/>
+      <c r="F224" s="7"/>
+    </row>
+    <row r="225" ht="16.5">
+      <c r="A225" s="18"/>
+      <c r="B225" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C225" s="45"/>
+      <c r="D225" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="E225" s="8"/>
+      <c r="F225" s="7"/>
+    </row>
+    <row r="226" ht="16.5">
+      <c r="A226" s="18"/>
+      <c r="B226" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="C226" s="45"/>
+      <c r="D226" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E226" s="8"/>
+      <c r="F226" s="7"/>
+    </row>
+    <row r="227" ht="16.5">
+      <c r="A227" s="18"/>
+      <c r="B227" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="C227" s="45"/>
+      <c r="D227" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E227" s="8"/>
+      <c r="F227" s="7"/>
+    </row>
+    <row r="228" ht="16.5" customHeight="1">
+      <c r="A228" s="18"/>
+      <c r="B228" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C228" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E228" s="8"/>
+      <c r="F228" s="7"/>
+    </row>
+    <row r="229" ht="16.5" customHeight="1">
+      <c r="A229" s="18"/>
+      <c r="B229" s="18"/>
+      <c r="C229" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E229" s="8"/>
+      <c r="F229" s="7"/>
+    </row>
+    <row r="230" ht="16.5" customHeight="1">
+      <c r="A230" s="16"/>
+      <c r="B230" s="16"/>
+      <c r="C230" s="45" t="s">
+        <v>422</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E230" s="8"/>
+      <c r="F230" s="7"/>
+    </row>
+    <row r="231" ht="16.5">
+      <c r="A231" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="B231" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C231" s="45"/>
+      <c r="D231" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E231" s="8"/>
+      <c r="F231" s="7"/>
+    </row>
+    <row r="232" ht="16.5">
+      <c r="A232" s="18"/>
+      <c r="B232" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="C232" s="45"/>
+      <c r="D232" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="E232" s="8"/>
+      <c r="F232" s="7"/>
+    </row>
+    <row r="233" ht="16.5">
+      <c r="A233" s="18"/>
+      <c r="B233" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C233" s="45"/>
+      <c r="D233" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E233" s="8"/>
+      <c r="F233" s="7"/>
+    </row>
+    <row r="234" ht="16.5">
+      <c r="A234" s="18"/>
+      <c r="B234" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="C234" s="45"/>
+      <c r="D234" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E234" s="8"/>
+      <c r="F234" s="7"/>
+    </row>
+    <row r="235" ht="13.5" customHeight="1">
+      <c r="A235" s="18"/>
+      <c r="B235" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C235" s="45"/>
+      <c r="D235" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E235" s="8"/>
+      <c r="F235" s="7"/>
+    </row>
+    <row r="236" ht="16.5">
+      <c r="A236" s="18"/>
+      <c r="B236" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="C236" s="45"/>
+      <c r="D236" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E236" s="8"/>
+      <c r="F236" s="7"/>
+    </row>
+    <row r="237" ht="16.5">
+      <c r="A237" s="18"/>
+      <c r="B237" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="C237" s="45"/>
+      <c r="D237" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="E237" s="8"/>
+      <c r="F237" s="7"/>
+    </row>
+    <row r="238" ht="13.5" customHeight="1">
+      <c r="A238" s="16"/>
+      <c r="B238" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="C238" s="45"/>
+      <c r="D238" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E238" s="8"/>
+      <c r="F238" s="7"/>
+    </row>
+    <row r="239" ht="16.5">
+      <c r="A239" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="B239" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="C239" s="45"/>
+      <c r="D239" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="E239" s="8"/>
+      <c r="F239" s="7"/>
+    </row>
+    <row r="240" ht="16.5">
+      <c r="A240" s="18"/>
+      <c r="B240" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="C240" s="45"/>
+      <c r="D240" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E240" s="8"/>
+      <c r="F240" s="7"/>
+    </row>
+    <row r="241" ht="16.5">
+      <c r="A241" s="18"/>
+      <c r="B241" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="C241" s="45"/>
+      <c r="D241" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E241" s="8"/>
+      <c r="F241" s="7"/>
+    </row>
+    <row r="242" ht="14.25" customHeight="1">
+      <c r="A242" s="18"/>
+      <c r="B242" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="C242" s="45"/>
+      <c r="D242" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="E242" s="8"/>
+      <c r="F242" s="7"/>
+    </row>
+    <row r="243" ht="16.5">
+      <c r="A243" s="18"/>
+      <c r="B243" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="C243" s="45"/>
+      <c r="D243" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E243" s="8"/>
+      <c r="F243" s="7"/>
+    </row>
+    <row r="244" ht="16.5">
+      <c r="A244" s="18"/>
+      <c r="B244" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="C244" s="45"/>
+      <c r="D244" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E244" s="8"/>
+      <c r="F244" s="7"/>
+    </row>
+    <row r="245" ht="16.5">
+      <c r="A245" s="16"/>
+      <c r="B245" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="C245" s="45"/>
+      <c r="D245" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E245" s="8"/>
+      <c r="F245" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="65">
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="B5:B11"/>
     <mergeCell ref="B12:B14"/>
@@ -5042,36 +5398,45 @@
     <mergeCell ref="B81:B83"/>
     <mergeCell ref="B84:B85"/>
     <mergeCell ref="B86:B90"/>
-    <mergeCell ref="A95:A128"/>
+    <mergeCell ref="A95:A131"/>
     <mergeCell ref="B95:B99"/>
     <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B111:B112"/>
     <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B128"/>
-    <mergeCell ref="C119:C124"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="A129:A145"/>
-    <mergeCell ref="B130:B145"/>
-    <mergeCell ref="A146:A164"/>
-    <mergeCell ref="B146:B152"/>
-    <mergeCell ref="A165:A196"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="B170:B183"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="C175:C178"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B122:B131"/>
+    <mergeCell ref="C122:C127"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="A132:A151"/>
+    <mergeCell ref="B132:B145"/>
+    <mergeCell ref="C132:C135"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="A152:A168"/>
+    <mergeCell ref="B153:B168"/>
+    <mergeCell ref="A169:A190"/>
+    <mergeCell ref="B169:B175"/>
     <mergeCell ref="B186:B187"/>
-    <mergeCell ref="B189:B193"/>
-    <mergeCell ref="B194:B196"/>
-    <mergeCell ref="A197:A204"/>
-    <mergeCell ref="B202:B204"/>
-    <mergeCell ref="A205:A212"/>
-    <mergeCell ref="A213:A219"/>
+    <mergeCell ref="A191:A222"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="B196:B209"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="C201:C204"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="B215:B219"/>
+    <mergeCell ref="B220:B222"/>
+    <mergeCell ref="A223:A230"/>
+    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="A231:A238"/>
+    <mergeCell ref="A239:A245"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
